--- a/Hotelprojekt_vo da uebung/UseCase Bewertung.xlsx
+++ b/Hotelprojekt_vo da uebung/UseCase Bewertung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25395" windowHeight="15555"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="15555"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,7 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -478,11 +474,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139190656"/>
-        <c:axId val="139192192"/>
+        <c:axId val="31936512"/>
+        <c:axId val="31938048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139190656"/>
+        <c:axId val="31936512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -491,7 +487,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139192192"/>
+        <c:crossAx val="31938048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -499,7 +495,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139192192"/>
+        <c:axId val="31938048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -510,14 +506,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139190656"/>
+        <c:crossAx val="31936512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -743,11 +738,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="165203328"/>
-        <c:axId val="165205120"/>
+        <c:axId val="31962240"/>
+        <c:axId val="31963776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="165203328"/>
+        <c:axId val="31962240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -756,7 +751,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165205120"/>
+        <c:crossAx val="31963776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -764,7 +759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165205120"/>
+        <c:axId val="31963776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,7 +770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165203328"/>
+        <c:crossAx val="31962240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -812,7 +807,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1008,11 +1002,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="169090432"/>
-        <c:axId val="169129088"/>
+        <c:axId val="32516736"/>
+        <c:axId val="32530816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169090432"/>
+        <c:axId val="32516736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,7 +1015,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169129088"/>
+        <c:crossAx val="32530816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1029,7 +1023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169129088"/>
+        <c:axId val="32530816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1040,14 +1034,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169090432"/>
+        <c:crossAx val="32516736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1273,11 +1266,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="181303552"/>
-        <c:axId val="181305344"/>
+        <c:axId val="32555392"/>
+        <c:axId val="32556928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="181303552"/>
+        <c:axId val="32555392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1286,7 +1279,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181305344"/>
+        <c:crossAx val="32556928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1294,7 +1287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181305344"/>
+        <c:axId val="32556928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1305,7 +1298,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181303552"/>
+        <c:crossAx val="32555392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1538,11 +1531,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="184736000"/>
-        <c:axId val="184839168"/>
+        <c:axId val="47138688"/>
+        <c:axId val="47140224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="184736000"/>
+        <c:axId val="47138688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1551,7 +1544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184839168"/>
+        <c:crossAx val="47140224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1559,7 +1552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184839168"/>
+        <c:axId val="47140224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1570,7 +1563,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184736000"/>
+        <c:crossAx val="47138688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1626,16 +1619,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>403411</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>45944</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3022785</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>493058</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>122144</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2036,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4032,99 +4025,99 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C26">
-        <f>AVERAGE(C2:C7)+AVERAGE(C8:C13)*2+AVERAGE(C14:C19)*1.5+AVERAGE(C20:C25)*0.5</f>
+        <f t="shared" ref="C26:Z26" si="0">AVERAGE(C2:C7)+AVERAGE(C8:C13)*2+AVERAGE(C14:C19)*1.5+AVERAGE(C20:C25)*0.5</f>
         <v>42.916666666666671</v>
       </c>
       <c r="D26">
-        <f>AVERAGE(D2:D7)+AVERAGE(D8:D13)*2+AVERAGE(D14:D19)*1.5+AVERAGE(D20:D25)*0.5</f>
+        <f t="shared" si="0"/>
         <v>40.166666666666671</v>
       </c>
       <c r="E26">
-        <f>AVERAGE(E2:E7)+AVERAGE(E8:E13)*2+AVERAGE(E14:E19)*1.5+AVERAGE(E20:E25)*0.5</f>
+        <f t="shared" si="0"/>
         <v>38.666666666666664</v>
       </c>
       <c r="F26">
-        <f>AVERAGE(F2:F7)+AVERAGE(F8:F13)*2+AVERAGE(F14:F19)*1.5+AVERAGE(F20:F25)*0.5</f>
+        <f t="shared" si="0"/>
         <v>36.833333333333329</v>
       </c>
       <c r="G26">
-        <f>AVERAGE(G2:G7)+AVERAGE(G8:G13)*2+AVERAGE(G14:G19)*1.5+AVERAGE(G20:G25)*0.5</f>
+        <f t="shared" si="0"/>
         <v>35.083333333333329</v>
       </c>
       <c r="H26">
-        <f>AVERAGE(H2:H7)+AVERAGE(H8:H13)*2+AVERAGE(H14:H19)*1.5+AVERAGE(H20:H25)*0.5</f>
+        <f t="shared" si="0"/>
         <v>32.666666666666664</v>
       </c>
       <c r="I26">
-        <f>AVERAGE(I2:I7)+AVERAGE(I8:I13)*2+AVERAGE(I14:I19)*1.5+AVERAGE(I20:I25)*0.5</f>
+        <f t="shared" si="0"/>
         <v>30.083333333333336</v>
       </c>
       <c r="J26">
-        <f>AVERAGE(J2:J7)+AVERAGE(J8:J13)*2+AVERAGE(J14:J19)*1.5+AVERAGE(J20:J25)*0.5</f>
+        <f t="shared" si="0"/>
         <v>27.25</v>
       </c>
       <c r="K26">
-        <f>AVERAGE(K2:K7)+AVERAGE(K8:K13)*2+AVERAGE(K14:K19)*1.5+AVERAGE(K20:K25)*0.5</f>
+        <f t="shared" si="0"/>
         <v>25.916666666666664</v>
       </c>
       <c r="L26">
-        <f>AVERAGE(L2:L7)+AVERAGE(L8:L13)*2+AVERAGE(L14:L19)*1.5+AVERAGE(L20:L25)*0.5</f>
+        <f t="shared" si="0"/>
         <v>25.583333333333336</v>
       </c>
       <c r="M26">
-        <f>AVERAGE(M2:M7)+AVERAGE(M8:M13)*2+AVERAGE(M14:M19)*1.5+AVERAGE(M20:M25)*0.5</f>
+        <f t="shared" si="0"/>
         <v>25.083333333333332</v>
       </c>
       <c r="N26">
-        <f>AVERAGE(N2:N7)+AVERAGE(N8:N13)*2+AVERAGE(N14:N19)*1.5+AVERAGE(N20:N25)*0.5</f>
+        <f t="shared" si="0"/>
         <v>24.833333333333332</v>
       </c>
       <c r="O26">
-        <f>AVERAGE(O2:O7)+AVERAGE(O8:O13)*2+AVERAGE(O14:O19)*1.5+AVERAGE(O20:O25)*0.5</f>
+        <f t="shared" si="0"/>
         <v>24.75</v>
       </c>
       <c r="P26">
-        <f>AVERAGE(P2:P7)+AVERAGE(P8:P13)*2+AVERAGE(P14:P19)*1.5+AVERAGE(P20:P25)*0.5</f>
+        <f t="shared" si="0"/>
         <v>23.416666666666668</v>
       </c>
       <c r="Q26">
-        <f>AVERAGE(Q2:Q7)+AVERAGE(Q8:Q13)*2+AVERAGE(Q14:Q19)*1.5+AVERAGE(Q20:Q25)*0.5</f>
+        <f t="shared" si="0"/>
         <v>22.916666666666668</v>
       </c>
       <c r="R26">
-        <f>AVERAGE(R2:R7)+AVERAGE(R8:R13)*2+AVERAGE(R14:R19)*1.5+AVERAGE(R20:R25)*0.5</f>
+        <f t="shared" si="0"/>
         <v>22.833333333333332</v>
       </c>
       <c r="S26">
-        <f>AVERAGE(S2:S7)+AVERAGE(S8:S13)*2+AVERAGE(S14:S19)*1.5+AVERAGE(S20:S25)*0.5</f>
+        <f t="shared" si="0"/>
         <v>22.083333333333332</v>
       </c>
       <c r="T26">
-        <f>AVERAGE(T2:T7)+AVERAGE(T8:T13)*2+AVERAGE(T14:T19)*1.5+AVERAGE(T20:T25)*0.5</f>
+        <f t="shared" si="0"/>
         <v>21.166666666666668</v>
       </c>
       <c r="U26">
-        <f>AVERAGE(U2:U7)+AVERAGE(U8:U13)*2+AVERAGE(U14:U19)*1.5+AVERAGE(U20:U25)*0.5</f>
+        <f t="shared" si="0"/>
         <v>19.75</v>
       </c>
       <c r="V26">
-        <f>AVERAGE(V2:V7)+AVERAGE(V8:V13)*2+AVERAGE(V14:V19)*1.5+AVERAGE(V20:V25)*0.5</f>
+        <f t="shared" si="0"/>
         <v>18.666666666666668</v>
       </c>
       <c r="W26">
-        <f>AVERAGE(W2:W7)+AVERAGE(W8:W13)*2+AVERAGE(W14:W19)*1.5+AVERAGE(W20:W25)*0.5</f>
+        <f t="shared" si="0"/>
         <v>17.916666666666664</v>
       </c>
       <c r="X26">
-        <f>AVERAGE(X2:X7)+AVERAGE(X8:X13)*2+AVERAGE(X14:X19)*1.5+AVERAGE(X20:X25)*0.5</f>
+        <f t="shared" si="0"/>
         <v>17.333333333333332</v>
       </c>
       <c r="Y26">
-        <f>AVERAGE(Y2:Y7)+AVERAGE(Y8:Y13)*2+AVERAGE(Y14:Y19)*1.5+AVERAGE(Y20:Y25)*0.5</f>
+        <f t="shared" si="0"/>
         <v>17.166666666666668</v>
       </c>
       <c r="Z26">
-        <f>AVERAGE(Z2:Z7)+AVERAGE(Z8:Z13)*2+AVERAGE(Z14:Z19)*1.5+AVERAGE(Z20:Z25)*0.5</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
     </row>
@@ -4138,99 +4131,99 @@
         <v>36</v>
       </c>
       <c r="C29">
-        <f>AVERAGE(C2:C7)</f>
+        <f t="shared" ref="C29:Z29" si="1">AVERAGE(C2:C7)</f>
         <v>5.666666666666667</v>
       </c>
       <c r="D29">
-        <f>AVERAGE(D2:D7)</f>
+        <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
       <c r="E29">
-        <f>AVERAGE(E2:E7)</f>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="F29">
-        <f>AVERAGE(F2:F7)</f>
+        <f t="shared" si="1"/>
         <v>5.833333333333333</v>
       </c>
       <c r="G29">
-        <f>AVERAGE(G2:G7)</f>
+        <f t="shared" si="1"/>
         <v>8.6666666666666661</v>
       </c>
       <c r="H29">
-        <f>AVERAGE(H2:H7)</f>
+        <f t="shared" si="1"/>
         <v>4.833333333333333</v>
       </c>
       <c r="I29">
-        <f>AVERAGE(I2:I7)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="J29">
-        <f>AVERAGE(J2:J7)</f>
+        <f t="shared" si="1"/>
         <v>3.8333333333333335</v>
       </c>
       <c r="K29">
-        <f>AVERAGE(K2:K7)</f>
+        <f t="shared" si="1"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="L29">
-        <f>AVERAGE(L2:L7)</f>
+        <f t="shared" si="1"/>
         <v>3.8333333333333335</v>
       </c>
       <c r="M29">
-        <f>AVERAGE(M2:M7)</f>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="N29">
-        <f>AVERAGE(N2:N7)</f>
+        <f t="shared" si="1"/>
         <v>4.333333333333333</v>
       </c>
       <c r="O29">
-        <f>AVERAGE(O2:O7)</f>
+        <f t="shared" si="1"/>
         <v>3.8333333333333335</v>
       </c>
       <c r="P29">
-        <f>AVERAGE(P2:P7)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="Q29">
-        <f>AVERAGE(Q2:Q7)</f>
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="R29">
-        <f>AVERAGE(R2:R7)</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="S29">
-        <f>AVERAGE(S2:S7)</f>
+        <f t="shared" si="1"/>
         <v>5.166666666666667</v>
       </c>
       <c r="T29">
-        <f>AVERAGE(T2:T7)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="U29">
-        <f>AVERAGE(U2:U7)</f>
+        <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
       <c r="V29">
-        <f>AVERAGE(V2:V7)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="W29">
-        <f>AVERAGE(W2:W7)</f>
+        <f t="shared" si="1"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="X29">
-        <f>AVERAGE(X2:X7)</f>
+        <f t="shared" si="1"/>
         <v>5.833333333333333</v>
       </c>
       <c r="Y29">
-        <f>AVERAGE(Y2:Y7)</f>
+        <f t="shared" si="1"/>
         <v>6.166666666666667</v>
       </c>
       <c r="Z29">
-        <f>AVERAGE(Z2:Z7)</f>
+        <f t="shared" si="1"/>
         <v>5.166666666666667</v>
       </c>
     </row>
@@ -4239,99 +4232,99 @@
         <v>7</v>
       </c>
       <c r="C30">
-        <f>AVERAGE(C8:C13)</f>
+        <f t="shared" ref="C30:Z30" si="2">AVERAGE(C8:C13)</f>
         <v>10</v>
       </c>
       <c r="D30">
-        <f>AVERAGE(D8:D13)</f>
+        <f t="shared" si="2"/>
         <v>9.8333333333333339</v>
       </c>
       <c r="E30">
-        <f>AVERAGE(E8:E13)</f>
+        <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
       <c r="F30">
-        <f>AVERAGE(F8:F13)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G30">
-        <f>AVERAGE(G8:G13)</f>
+        <f t="shared" si="2"/>
         <v>5.333333333333333</v>
       </c>
       <c r="H30">
-        <f>AVERAGE(H8:H13)</f>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="I30">
-        <f>AVERAGE(I8:I13)</f>
+        <f t="shared" si="2"/>
         <v>4.166666666666667</v>
       </c>
       <c r="J30">
-        <f>AVERAGE(J8:J13)</f>
+        <f t="shared" si="2"/>
         <v>4.166666666666667</v>
       </c>
       <c r="K30">
-        <f>AVERAGE(K8:K13)</f>
+        <f t="shared" si="2"/>
         <v>5.833333333333333</v>
       </c>
       <c r="L30">
-        <f>AVERAGE(L8:L13)</f>
+        <f t="shared" si="2"/>
         <v>5.166666666666667</v>
       </c>
       <c r="M30">
-        <f>AVERAGE(M8:M13)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="N30">
-        <f>AVERAGE(N8:N13)</f>
+        <f t="shared" si="2"/>
         <v>3.5</v>
       </c>
       <c r="O30">
-        <f>AVERAGE(O8:O13)</f>
+        <f t="shared" si="2"/>
         <v>5.666666666666667</v>
       </c>
       <c r="P30">
-        <f>AVERAGE(P8:P13)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="Q30">
-        <f>AVERAGE(Q8:Q13)</f>
+        <f t="shared" si="2"/>
         <v>4.666666666666667</v>
       </c>
       <c r="R30">
-        <f>AVERAGE(R8:R13)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="S30">
-        <f>AVERAGE(S8:S13)</f>
+        <f t="shared" si="2"/>
         <v>5.333333333333333</v>
       </c>
       <c r="T30">
-        <f>AVERAGE(T8:T13)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="U30">
-        <f>AVERAGE(U8:U13)</f>
+        <f t="shared" si="2"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="V30">
-        <f>AVERAGE(V8:V13)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="W30">
-        <f>AVERAGE(W8:W13)</f>
+        <f t="shared" si="2"/>
         <v>3.1666666666666665</v>
       </c>
       <c r="X30">
-        <f>AVERAGE(X8:X13)</f>
+        <f t="shared" si="2"/>
         <v>3.8333333333333335</v>
       </c>
       <c r="Y30">
-        <f>AVERAGE(Y8:Y13)</f>
+        <f t="shared" si="2"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="Z30">
-        <f>AVERAGE(Z8:Z13)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -4340,99 +4333,99 @@
         <v>8</v>
       </c>
       <c r="C31">
-        <f>AVERAGE(C14:C19)</f>
+        <f t="shared" ref="C31:Z31" si="3">AVERAGE(C14:C19)</f>
         <v>9.8333333333333339</v>
       </c>
       <c r="D31">
-        <f>AVERAGE(D14:D19)</f>
+        <f t="shared" si="3"/>
         <v>8.8333333333333339</v>
       </c>
       <c r="E31">
-        <f>AVERAGE(E14:E19)</f>
+        <f t="shared" si="3"/>
         <v>7.833333333333333</v>
       </c>
       <c r="F31">
-        <f>AVERAGE(F14:F19)</f>
+        <f t="shared" si="3"/>
         <v>9.6666666666666661</v>
       </c>
       <c r="G31">
-        <f>AVERAGE(G14:G19)</f>
+        <f t="shared" si="3"/>
         <v>7.666666666666667</v>
       </c>
       <c r="H31">
-        <f>AVERAGE(H14:H19)</f>
+        <f t="shared" si="3"/>
         <v>8.8333333333333339</v>
       </c>
       <c r="I31">
-        <f>AVERAGE(I14:I19)</f>
+        <f t="shared" si="3"/>
         <v>8.5</v>
       </c>
       <c r="J31">
-        <f>AVERAGE(J14:J19)</f>
+        <f t="shared" si="3"/>
         <v>9.1666666666666661</v>
       </c>
       <c r="K31">
-        <f>AVERAGE(K14:K19)</f>
+        <f t="shared" si="3"/>
         <v>5.666666666666667</v>
       </c>
       <c r="L31">
-        <f>AVERAGE(L14:L19)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="M31">
-        <f>AVERAGE(M14:M19)</f>
+        <f t="shared" si="3"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="N31">
-        <f>AVERAGE(N14:N19)</f>
+        <f t="shared" si="3"/>
         <v>7.666666666666667</v>
       </c>
       <c r="O31">
-        <f>AVERAGE(O14:O19)</f>
+        <f t="shared" si="3"/>
         <v>5.333333333333333</v>
       </c>
       <c r="P31">
-        <f>AVERAGE(P14:P19)</f>
+        <f t="shared" si="3"/>
         <v>8.1666666666666661</v>
       </c>
       <c r="Q31">
-        <f>AVERAGE(Q14:Q19)</f>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
       <c r="R31">
-        <f>AVERAGE(R14:R19)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="S31">
-        <f>AVERAGE(S14:S19)</f>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="T31">
-        <f>AVERAGE(T14:T19)</f>
+        <f t="shared" si="3"/>
         <v>6.666666666666667</v>
       </c>
       <c r="U31">
-        <f>AVERAGE(U14:U19)</f>
+        <f t="shared" si="3"/>
         <v>5.166666666666667</v>
       </c>
       <c r="V31">
-        <f>AVERAGE(V14:V19)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="W31">
-        <f>AVERAGE(W14:W19)</f>
+        <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
       <c r="X31">
-        <f>AVERAGE(X14:X19)</f>
+        <f t="shared" si="3"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="Y31">
-        <f>AVERAGE(Y14:Y19)</f>
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
       <c r="Z31">
-        <f>AVERAGE(Z14:Z19)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -4441,99 +4434,99 @@
         <v>9</v>
       </c>
       <c r="C32">
-        <f>AVERAGE(C20:C25)</f>
+        <f t="shared" ref="C32:Z32" si="4">AVERAGE(C20:C25)</f>
         <v>5</v>
       </c>
       <c r="D32">
-        <f>AVERAGE(D20:D25)</f>
+        <f t="shared" si="4"/>
         <v>5.5</v>
       </c>
       <c r="E32">
-        <f>AVERAGE(E20:E25)</f>
+        <f t="shared" si="4"/>
         <v>4.833333333333333</v>
       </c>
       <c r="F32">
-        <f>AVERAGE(F20:F25)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G32">
-        <f>AVERAGE(G20:G25)</f>
+        <f t="shared" si="4"/>
         <v>8.5</v>
       </c>
       <c r="H32">
-        <f>AVERAGE(H20:H25)</f>
+        <f t="shared" si="4"/>
         <v>3.1666666666666665</v>
       </c>
       <c r="I32">
-        <f>AVERAGE(I20:I25)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="J32">
-        <f>AVERAGE(J20:J25)</f>
+        <f t="shared" si="4"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="K32">
-        <f>AVERAGE(K20:K25)</f>
+        <f t="shared" si="4"/>
         <v>4.166666666666667</v>
       </c>
       <c r="L32">
-        <f>AVERAGE(L20:L25)</f>
+        <f t="shared" si="4"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="M32">
-        <f>AVERAGE(M20:M25)</f>
+        <f t="shared" si="4"/>
         <v>4.166666666666667</v>
       </c>
       <c r="N32">
-        <f>AVERAGE(N20:N25)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="O32">
-        <f>AVERAGE(O20:O25)</f>
+        <f t="shared" si="4"/>
         <v>3.1666666666666665</v>
       </c>
       <c r="P32">
-        <f>AVERAGE(P20:P25)</f>
+        <f t="shared" si="4"/>
         <v>4.333333333333333</v>
       </c>
       <c r="Q32">
-        <f>AVERAGE(Q20:Q25)</f>
+        <f t="shared" si="4"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="R32">
-        <f>AVERAGE(R20:R25)</f>
+        <f t="shared" si="4"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="S32">
-        <f>AVERAGE(S20:S25)</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="T32">
-        <f>AVERAGE(T20:T25)</f>
+        <f t="shared" si="4"/>
         <v>4.333333333333333</v>
       </c>
       <c r="U32">
-        <f>AVERAGE(U20:U25)</f>
+        <f t="shared" si="4"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="V32">
-        <f>AVERAGE(V20:V25)</f>
+        <f t="shared" si="4"/>
         <v>4.333333333333333</v>
       </c>
       <c r="W32">
-        <f>AVERAGE(W20:W25)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="X32">
-        <f>AVERAGE(X20:X25)</f>
+        <f t="shared" si="4"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="Y32">
-        <f>AVERAGE(Y20:Y25)</f>
+        <f t="shared" si="4"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="Z32">
-        <f>AVERAGE(Z20:Z25)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -4543,11 +4536,6 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4560,11 +4548,6 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4577,10 +4560,5 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Hotelprojekt_vo da uebung/UseCase Bewertung.xlsx
+++ b/Hotelprojekt_vo da uebung/UseCase Bewertung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="15555"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -390,76 +389,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>42.916666666666671</c:v>
+                  <c:v>38.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.166666666666671</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>38.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.833333333333329</c:v>
+                  <c:v>37.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.083333333333329</c:v>
+                  <c:v>35.416666666666671</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.666666666666664</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.083333333333336</c:v>
+                  <c:v>30.083333333333332</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.25</c:v>
+                  <c:v>28.916666666666668</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>25.749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.416666666666668</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>25.916666666666664</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>25.583333333333336</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25.083333333333332</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.833333333333332</c:v>
+                  <c:v>26.083333333333336</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.75</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.416666666666668</c:v>
+                  <c:v>22.000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.916666666666668</c:v>
+                  <c:v>21.833333333333332</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.833333333333332</c:v>
+                  <c:v>21.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.083333333333332</c:v>
+                  <c:v>20.583333333333332</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21.166666666666668</c:v>
+                  <c:v>19.750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19.75</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>18.666666666666668</c:v>
+                  <c:v>16.833333333333332</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>17.916666666666664</c:v>
+                  <c:v>18.916666666666664</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17.333333333333332</c:v>
+                  <c:v>18.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>17.166666666666668</c:v>
+                  <c:v>16.333333333333332</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16.666666666666668</c:v>
+                  <c:v>17.083333333333336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -474,11 +473,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="31936512"/>
-        <c:axId val="31938048"/>
+        <c:axId val="96024448"/>
+        <c:axId val="96025984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="31936512"/>
+        <c:axId val="96024448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -487,7 +486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="31938048"/>
+        <c:crossAx val="96025984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -495,7 +494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31938048"/>
+        <c:axId val="96025984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -506,13 +505,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="31936512"/>
+        <c:crossAx val="96024448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -654,7 +654,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.5</c:v>
@@ -666,28 +666,28 @@
                   <c:v>5.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.6666666666666661</c:v>
+                  <c:v>8.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.833333333333333</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>7.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.8333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3.6666666666666665</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.8333333333333335</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.5</c:v>
+                  <c:v>6.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3.8333333333333335</c:v>
@@ -702,7 +702,7 @@
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.166666666666667</c:v>
+                  <c:v>4.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>5</c:v>
@@ -711,16 +711,16 @@
                   <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>4.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>2.3333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.833333333333333</c:v>
+                  <c:v>6.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.166666666666667</c:v>
+                  <c:v>6.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>5.166666666666667</c:v>
@@ -738,11 +738,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="31962240"/>
-        <c:axId val="31963776"/>
+        <c:axId val="96070656"/>
+        <c:axId val="96072448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="31962240"/>
+        <c:axId val="96070656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -751,7 +751,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="31963776"/>
+        <c:crossAx val="96072448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -759,7 +759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31963776"/>
+        <c:axId val="96072448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -770,7 +770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="31962240"/>
+        <c:crossAx val="96070656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -807,6 +807,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -918,28 +919,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.8333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>7.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.333333333333333</c:v>
+                  <c:v>5.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5</c:v>
+                  <c:v>6.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.166666666666667</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.166666666666667</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5.833333333333333</c:v>
@@ -951,43 +952,43 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5</c:v>
+                  <c:v>3.8333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>5.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.333333333333333</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.6666666666666665</c:v>
+                  <c:v>3.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>3.1666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.8333333333333335</c:v>
+                  <c:v>4.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2.3333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2</c:v>
+                  <c:v>2.3333333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1002,11 +1003,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="32516736"/>
-        <c:axId val="32530816"/>
+        <c:axId val="97796864"/>
+        <c:axId val="97798400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="32516736"/>
+        <c:axId val="97796864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1015,7 +1016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32530816"/>
+        <c:crossAx val="97798400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1023,7 +1024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32530816"/>
+        <c:axId val="97798400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,13 +1035,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32516736"/>
+        <c:crossAx val="97796864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1182,7 +1184,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>9.8333333333333339</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.8333333333333339</c:v>
@@ -1191,7 +1193,7 @@
                   <c:v>7.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.6666666666666661</c:v>
+                  <c:v>9.8333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7.666666666666667</c:v>
@@ -1209,49 +1211,49 @@
                   <c:v>5.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>6.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>7.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>7.666666666666667</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.1666666666666661</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.5</c:v>
+                  <c:v>2.1666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.666666666666667</c:v>
+                  <c:v>6.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.166666666666667</c:v>
+                  <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5</c:v>
+                  <c:v>4.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.5</c:v>
+                  <c:v>6.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1.8333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.5</c:v>
+                  <c:v>2.8333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4</c:v>
+                  <c:v>3.8333333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1266,11 +1268,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="32555392"/>
-        <c:axId val="32556928"/>
+        <c:axId val="97835264"/>
+        <c:axId val="97837056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="32555392"/>
+        <c:axId val="97835264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,7 +1281,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32556928"/>
+        <c:crossAx val="97837056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1287,7 +1289,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32556928"/>
+        <c:axId val="97837056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,7 +1300,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32555392"/>
+        <c:crossAx val="97835264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1531,11 +1533,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="47138688"/>
-        <c:axId val="47140224"/>
+        <c:axId val="97863552"/>
+        <c:axId val="97865088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="47138688"/>
+        <c:axId val="97863552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1544,7 +1546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47140224"/>
+        <c:crossAx val="97865088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1552,7 +1554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47140224"/>
+        <c:axId val="97865088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1563,7 +1565,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47138688"/>
+        <c:crossAx val="97863552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2029,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="11">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4">
         <v>8</v>
@@ -2316,28 +2318,28 @@
         <v>7</v>
       </c>
       <c r="G4" s="11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H4" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I4" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J4" s="11">
         <v>3</v>
       </c>
       <c r="K4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N4" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O4" s="11">
         <v>3</v>
@@ -2352,7 +2354,7 @@
         <v>2</v>
       </c>
       <c r="S4" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T4" s="11">
         <v>8</v>
@@ -2361,16 +2363,16 @@
         <v>7</v>
       </c>
       <c r="V4" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W4" s="11">
         <v>3</v>
       </c>
       <c r="X4" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y4" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z4" s="11">
         <v>6</v>
@@ -2774,28 +2776,28 @@
         <v>2</v>
       </c>
       <c r="C10" s="11">
+        <v>2</v>
+      </c>
+      <c r="D10" s="11">
         <v>10</v>
       </c>
-      <c r="D10" s="11">
+      <c r="E10" s="11">
+        <v>8</v>
+      </c>
+      <c r="F10" s="11">
+        <v>10</v>
+      </c>
+      <c r="G10" s="11">
         <v>9</v>
       </c>
-      <c r="E10" s="11">
-        <v>8</v>
-      </c>
-      <c r="F10" s="11">
-        <v>8</v>
-      </c>
-      <c r="G10" s="11">
-        <v>7</v>
-      </c>
       <c r="H10" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I10" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K10" s="11">
         <v>5</v>
@@ -2807,43 +2809,43 @@
         <v>7</v>
       </c>
       <c r="N10" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O10" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P10" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10" s="11">
         <v>2</v>
       </c>
       <c r="S10" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T10" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U10" s="11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="V10" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W10" s="11">
         <v>4</v>
       </c>
       <c r="X10" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y10" s="11">
         <v>4</v>
       </c>
       <c r="Z10" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3244,7 +3246,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16" s="11">
         <v>10</v>
@@ -3253,7 +3255,7 @@
         <v>9</v>
       </c>
       <c r="F16" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16" s="11">
         <v>8</v>
@@ -3271,49 +3273,49 @@
         <v>5</v>
       </c>
       <c r="L16" s="11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M16" s="11">
         <v>3</v>
       </c>
       <c r="N16" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O16" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P16" s="11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q16" s="11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R16" s="11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S16" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T16" s="11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U16" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V16" s="11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="W16" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X16" s="11">
         <v>2</v>
       </c>
       <c r="Y16" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z16" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -4026,11 +4028,11 @@
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" ref="C26:Z26" si="0">AVERAGE(C2:C7)+AVERAGE(C8:C13)*2+AVERAGE(C14:C19)*1.5+AVERAGE(C20:C25)*0.5</f>
-        <v>42.916666666666671</v>
+        <v>38.75</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>40.166666666666671</v>
+        <v>40.5</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
@@ -4038,87 +4040,87 @@
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>36.833333333333329</v>
+        <v>37.75</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>35.083333333333329</v>
+        <v>35.416666666666671</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>32.666666666666664</v>
+        <v>33.5</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>30.083333333333336</v>
+        <v>30.083333333333332</v>
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>27.25</v>
+        <v>28.916666666666668</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>25.916666666666664</v>
+        <v>25.749999999999996</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>25.583333333333336</v>
+        <v>24.416666666666668</v>
       </c>
       <c r="M26">
         <f t="shared" si="0"/>
-        <v>25.083333333333332</v>
+        <v>25.916666666666664</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
-        <v>24.833333333333332</v>
+        <v>26.083333333333336</v>
       </c>
       <c r="O26">
         <f t="shared" si="0"/>
-        <v>24.75</v>
+        <v>23.5</v>
       </c>
       <c r="P26">
         <f t="shared" si="0"/>
-        <v>23.416666666666668</v>
+        <v>22.000000000000004</v>
       </c>
       <c r="Q26">
         <f t="shared" si="0"/>
-        <v>22.916666666666668</v>
+        <v>21.833333333333332</v>
       </c>
       <c r="R26">
         <f t="shared" si="0"/>
-        <v>22.833333333333332</v>
+        <v>21.333333333333332</v>
       </c>
       <c r="S26">
         <f t="shared" si="0"/>
-        <v>22.083333333333332</v>
+        <v>20.583333333333332</v>
       </c>
       <c r="T26">
         <f t="shared" si="0"/>
-        <v>21.166666666666668</v>
+        <v>19.750000000000004</v>
       </c>
       <c r="U26">
         <f t="shared" si="0"/>
-        <v>19.75</v>
+        <v>21</v>
       </c>
       <c r="V26">
         <f t="shared" si="0"/>
-        <v>18.666666666666668</v>
+        <v>16.833333333333332</v>
       </c>
       <c r="W26">
         <f t="shared" si="0"/>
-        <v>17.916666666666664</v>
+        <v>18.916666666666664</v>
       </c>
       <c r="X26">
         <f t="shared" si="0"/>
-        <v>17.333333333333332</v>
+        <v>18.333333333333332</v>
       </c>
       <c r="Y26">
         <f t="shared" si="0"/>
-        <v>17.166666666666668</v>
+        <v>16.333333333333332</v>
       </c>
       <c r="Z26">
         <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
+        <v>17.083333333333336</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
@@ -4132,7 +4134,7 @@
       </c>
       <c r="C29">
         <f t="shared" ref="C29:Z29" si="1">AVERAGE(C2:C7)</f>
-        <v>5.666666666666667</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
@@ -4148,15 +4150,15 @@
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>8.6666666666666661</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="H29">
         <f t="shared" si="1"/>
-        <v>4.833333333333333</v>
+        <v>5</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
@@ -4164,19 +4166,19 @@
       </c>
       <c r="K29">
         <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
+        <v>3.5</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
-        <v>3.8333333333333335</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="M29">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="N29">
         <f t="shared" si="1"/>
-        <v>4.333333333333333</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
@@ -4196,7 +4198,7 @@
       </c>
       <c r="S29">
         <f t="shared" si="1"/>
-        <v>5.166666666666667</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="T29">
         <f t="shared" si="1"/>
@@ -4208,7 +4210,7 @@
       </c>
       <c r="V29">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="W29">
         <f t="shared" si="1"/>
@@ -4216,11 +4218,11 @@
       </c>
       <c r="X29">
         <f t="shared" si="1"/>
-        <v>5.833333333333333</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="Y29">
         <f t="shared" si="1"/>
-        <v>6.166666666666667</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="Z29">
         <f t="shared" si="1"/>
@@ -4233,11 +4235,11 @@
       </c>
       <c r="C30">
         <f t="shared" ref="C30:Z30" si="2">AVERAGE(C8:C13)</f>
-        <v>10</v>
+        <v>8.6666666666666661</v>
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
-        <v>9.8333333333333339</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
@@ -4245,23 +4247,23 @@
       </c>
       <c r="F30">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
-        <v>5.333333333333333</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
-        <v>4.166666666666667</v>
+        <v>4</v>
       </c>
       <c r="J30">
         <f t="shared" si="2"/>
-        <v>4.166666666666667</v>
+        <v>5</v>
       </c>
       <c r="K30">
         <f t="shared" si="2"/>
@@ -4277,19 +4279,19 @@
       </c>
       <c r="N30">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>3.8333333333333335</v>
       </c>
       <c r="O30">
         <f t="shared" si="2"/>
-        <v>5.666666666666667</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="P30">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="Q30">
         <f t="shared" si="2"/>
-        <v>4.666666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="R30">
         <f t="shared" si="2"/>
@@ -4297,19 +4299,19 @@
       </c>
       <c r="S30">
         <f t="shared" si="2"/>
-        <v>5.333333333333333</v>
+        <v>5</v>
       </c>
       <c r="T30">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="U30">
         <f t="shared" si="2"/>
-        <v>2.6666666666666665</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="V30">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="W30">
         <f t="shared" si="2"/>
@@ -4317,7 +4319,7 @@
       </c>
       <c r="X30">
         <f t="shared" si="2"/>
-        <v>3.8333333333333335</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="Y30">
         <f t="shared" si="2"/>
@@ -4325,7 +4327,7 @@
       </c>
       <c r="Z30">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
@@ -4334,7 +4336,7 @@
       </c>
       <c r="C31">
         <f t="shared" ref="C31:Z31" si="3">AVERAGE(C14:C19)</f>
-        <v>9.8333333333333339</v>
+        <v>9.5</v>
       </c>
       <c r="D31">
         <f t="shared" si="3"/>
@@ -4346,7 +4348,7 @@
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
-        <v>9.6666666666666661</v>
+        <v>9.8333333333333339</v>
       </c>
       <c r="G31">
         <f t="shared" si="3"/>
@@ -4370,7 +4372,7 @@
       </c>
       <c r="L31">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="M31">
         <f t="shared" si="3"/>
@@ -4378,43 +4380,43 @@
       </c>
       <c r="N31">
         <f t="shared" si="3"/>
-        <v>7.666666666666667</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="O31">
         <f t="shared" si="3"/>
-        <v>5.333333333333333</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="P31">
         <f t="shared" si="3"/>
-        <v>8.1666666666666661</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="Q31">
         <f t="shared" si="3"/>
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="R31">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S31">
         <f t="shared" si="3"/>
-        <v>2.5</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="T31">
         <f t="shared" si="3"/>
-        <v>6.666666666666667</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="U31">
         <f t="shared" si="3"/>
-        <v>5.166666666666667</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="V31">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="W31">
         <f t="shared" si="3"/>
-        <v>5.5</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="X31">
         <f t="shared" si="3"/>
@@ -4422,11 +4424,11 @@
       </c>
       <c r="Y31">
         <f t="shared" si="3"/>
-        <v>3.5</v>
+        <v>2.8333333333333335</v>
       </c>
       <c r="Z31">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3.8333333333333335</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">

--- a/Hotelprojekt_vo da uebung/UseCase Bewertung.xlsx
+++ b/Hotelprojekt_vo da uebung/UseCase Bewertung.xlsx
@@ -389,7 +389,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>38.75</c:v>
+                  <c:v>37.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>40.5</c:v>
@@ -473,11 +473,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="96024448"/>
-        <c:axId val="96025984"/>
+        <c:axId val="95303552"/>
+        <c:axId val="95305088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96024448"/>
+        <c:axId val="95303552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,7 +486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96025984"/>
+        <c:crossAx val="95305088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -494,7 +494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96025984"/>
+        <c:axId val="95305088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -505,14 +505,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96024448"/>
+        <c:crossAx val="95303552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -542,7 +541,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -738,11 +736,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="96070656"/>
-        <c:axId val="96072448"/>
+        <c:axId val="95349760"/>
+        <c:axId val="95351552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96070656"/>
+        <c:axId val="95349760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -751,7 +749,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96072448"/>
+        <c:crossAx val="95351552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -759,7 +757,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96072448"/>
+        <c:axId val="95351552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -770,14 +768,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96070656"/>
+        <c:crossAx val="95349760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -807,7 +804,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1042,7 +1038,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1072,7 +1067,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1184,7 +1178,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>9.5</c:v>
+                  <c:v>8.8333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8.8333333333333339</c:v>
@@ -1307,7 +1301,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1337,7 +1330,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1533,11 +1525,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="97863552"/>
-        <c:axId val="97865088"/>
+        <c:axId val="97861632"/>
+        <c:axId val="97863168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97863552"/>
+        <c:axId val="97861632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1546,7 +1538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97865088"/>
+        <c:crossAx val="97863168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1554,7 +1546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97865088"/>
+        <c:axId val="97863168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1565,14 +1557,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97863552"/>
+        <c:crossAx val="97861632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2032,7 +2023,7 @@
   <dimension ref="A1:AD32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3324,7 +3315,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D17" s="11">
         <v>10</v>
@@ -4028,7 +4019,7 @@
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" ref="C26:Z26" si="0">AVERAGE(C2:C7)+AVERAGE(C8:C13)*2+AVERAGE(C14:C19)*1.5+AVERAGE(C20:C25)*0.5</f>
-        <v>38.75</v>
+        <v>37.75</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
@@ -4336,7 +4327,7 @@
       </c>
       <c r="C31">
         <f t="shared" ref="C31:Z31" si="3">AVERAGE(C14:C19)</f>
-        <v>9.5</v>
+        <v>8.8333333333333339</v>
       </c>
       <c r="D31">
         <f t="shared" si="3"/>

--- a/Hotelprojekt_vo da uebung/UseCase Bewertung.xlsx
+++ b/Hotelprojekt_vo da uebung/UseCase Bewertung.xlsx
@@ -389,37 +389,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>37.75</c:v>
+                  <c:v>35.083333333333329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40.5</c:v>
+                  <c:v>41.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.666666666666664</c:v>
+                  <c:v>37.833333333333336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.75</c:v>
+                  <c:v>37.416666666666664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.416666666666671</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.5</c:v>
+                  <c:v>35.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.083333333333332</c:v>
+                  <c:v>27.916666666666668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.916666666666668</c:v>
+                  <c:v>29.583333333333332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.749999999999996</c:v>
+                  <c:v>23.916666666666664</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.416666666666668</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.916666666666664</c:v>
+                  <c:v>25.583333333333332</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>26.083333333333336</c:v>
@@ -431,31 +431,31 @@
                   <c:v>22.000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21.833333333333332</c:v>
+                  <c:v>19.833333333333332</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21.333333333333332</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.583333333333332</c:v>
+                  <c:v>19.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.750000000000004</c:v>
+                  <c:v>19.416666666666668</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16.833333333333332</c:v>
+                  <c:v>14.999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>18.916666666666664</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18.333333333333332</c:v>
+                  <c:v>17.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>16.333333333333332</c:v>
+                  <c:v>15.833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>17.083333333333336</c:v>
@@ -473,11 +473,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="95303552"/>
-        <c:axId val="95305088"/>
+        <c:axId val="36009984"/>
+        <c:axId val="101652672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95303552"/>
+        <c:axId val="36009984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,7 +486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95305088"/>
+        <c:crossAx val="101652672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -494,7 +494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95305088"/>
+        <c:axId val="101652672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -505,13 +505,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95303552"/>
+        <c:crossAx val="36009984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -658,25 +659,25 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5</c:v>
+                  <c:v>6.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.833333333333333</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3333333333333339</c:v>
+                  <c:v>7.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>5.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.333333333333333</c:v>
+                  <c:v>7.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8333333333333335</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5</c:v>
+                  <c:v>3.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.6666666666666665</c:v>
@@ -700,7 +701,7 @@
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.833333333333333</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>5</c:v>
@@ -736,11 +737,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="95349760"/>
-        <c:axId val="95351552"/>
+        <c:axId val="36011520"/>
+        <c:axId val="101652096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95349760"/>
+        <c:axId val="36011520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -749,7 +750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95351552"/>
+        <c:crossAx val="101652096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -757,7 +758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95351552"/>
+        <c:axId val="101652096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -768,7 +769,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95349760"/>
+        <c:crossAx val="36011520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -804,6 +805,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -915,7 +917,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>8.6666666666666661</c:v>
+                  <c:v>7.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
@@ -927,25 +929,25 @@
                   <c:v>7.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.666666666666667</c:v>
+                  <c:v>5.833333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.833333333333333</c:v>
+                  <c:v>7.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>4.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>5.833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.166666666666667</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>3.8333333333333335</c:v>
@@ -957,28 +959,28 @@
                   <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>3.6666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>3.1666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.166666666666667</c:v>
+                  <c:v>3.8333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2.3333333333333335</c:v>
@@ -999,11 +1001,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="97796864"/>
-        <c:axId val="97798400"/>
+        <c:axId val="36098048"/>
+        <c:axId val="36218560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97796864"/>
+        <c:axId val="36098048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1012,7 +1014,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97798400"/>
+        <c:crossAx val="36218560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1020,7 +1022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97798400"/>
+        <c:axId val="36218560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1031,13 +1033,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97796864"/>
+        <c:crossAx val="36098048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1181,7 +1184,7 @@
                   <c:v>8.8333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8333333333333339</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>7.833333333333333</c:v>
@@ -1190,22 +1193,22 @@
                   <c:v>9.8333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.666666666666667</c:v>
+                  <c:v>8.1666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.8333333333333339</c:v>
+                  <c:v>9.1666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.1666666666666661</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>5.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.333333333333333</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>3.6666666666666665</c:v>
@@ -1235,7 +1238,7 @@
                   <c:v>4.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.333333333333333</c:v>
+                  <c:v>3.3333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>6.166666666666667</c:v>
@@ -1244,7 +1247,7 @@
                   <c:v>1.8333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.8333333333333335</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>3.8333333333333335</c:v>
@@ -1262,11 +1265,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="97835264"/>
-        <c:axId val="97837056"/>
+        <c:axId val="36098560"/>
+        <c:axId val="36220288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97835264"/>
+        <c:axId val="36098560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1275,7 +1278,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97837056"/>
+        <c:crossAx val="36220288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1283,7 +1286,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97837056"/>
+        <c:axId val="36220288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,7 +1297,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97835264"/>
+        <c:crossAx val="36098560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1525,11 +1528,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="97861632"/>
-        <c:axId val="97863168"/>
+        <c:axId val="36099072"/>
+        <c:axId val="36222016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97861632"/>
+        <c:axId val="36099072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1538,7 +1541,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97863168"/>
+        <c:crossAx val="36222016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1546,7 +1549,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97863168"/>
+        <c:axId val="36222016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1557,7 +1560,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97861632"/>
+        <c:crossAx val="36099072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2023,7 +2026,7 @@
   <dimension ref="A1:AD32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2537,25 +2540,25 @@
         <v>3</v>
       </c>
       <c r="E7" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F7" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G7" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H7" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" s="6">
         <v>3</v>
@@ -2579,7 +2582,7 @@
         <v>2</v>
       </c>
       <c r="S7" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T7" s="6">
         <v>5</v>
@@ -3001,7 +3004,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D13" s="4">
         <v>10</v>
@@ -3013,25 +3016,25 @@
         <v>8</v>
       </c>
       <c r="G13" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H13" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I13" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J13" s="11">
         <v>7</v>
       </c>
       <c r="K13" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L13" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M13" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" s="11">
         <v>4</v>
@@ -3043,28 +3046,28 @@
         <v>2</v>
       </c>
       <c r="Q13" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R13" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S13" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T13" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U13" s="11">
         <v>2</v>
       </c>
       <c r="V13" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W13" s="11">
         <v>1</v>
       </c>
       <c r="X13" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y13" s="11">
         <v>2</v>
@@ -3477,7 +3480,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E19" s="6">
         <v>8</v>
@@ -3486,22 +3489,22 @@
         <v>10</v>
       </c>
       <c r="G19" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H19" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I19" s="6">
         <v>8</v>
       </c>
       <c r="J19" s="6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K19" s="6">
         <v>6</v>
       </c>
       <c r="L19" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M19" s="6">
         <v>6</v>
@@ -3531,7 +3534,7 @@
         <v>6</v>
       </c>
       <c r="V19" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="W19" s="6">
         <v>5</v>
@@ -3540,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="Y19" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z19" s="6">
         <v>3</v>
@@ -4019,47 +4022,47 @@
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C26">
         <f t="shared" ref="C26:Z26" si="0">AVERAGE(C2:C7)+AVERAGE(C8:C13)*2+AVERAGE(C14:C19)*1.5+AVERAGE(C20:C25)*0.5</f>
-        <v>37.75</v>
+        <v>35.083333333333329</v>
       </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>40.5</v>
+        <v>41.5</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>38.666666666666664</v>
+        <v>37.833333333333336</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>37.75</v>
+        <v>37.416666666666664</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>35.416666666666671</v>
+        <v>36</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>33.5</v>
+        <v>35.000000000000007</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>30.083333333333332</v>
+        <v>27.916666666666668</v>
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>28.916666666666668</v>
+        <v>29.583333333333332</v>
       </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>25.749999999999996</v>
+        <v>23.916666666666664</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>24.416666666666668</v>
+        <v>24</v>
       </c>
       <c r="M26">
         <f t="shared" si="0"/>
-        <v>25.916666666666664</v>
+        <v>25.583333333333332</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
@@ -4075,19 +4078,19 @@
       </c>
       <c r="Q26">
         <f t="shared" si="0"/>
-        <v>21.833333333333332</v>
+        <v>19.833333333333332</v>
       </c>
       <c r="R26">
         <f t="shared" si="0"/>
-        <v>21.333333333333332</v>
+        <v>21</v>
       </c>
       <c r="S26">
         <f t="shared" si="0"/>
-        <v>20.583333333333332</v>
+        <v>19.25</v>
       </c>
       <c r="T26">
         <f t="shared" si="0"/>
-        <v>19.750000000000004</v>
+        <v>19.416666666666668</v>
       </c>
       <c r="U26">
         <f t="shared" si="0"/>
@@ -4095,7 +4098,7 @@
       </c>
       <c r="V26">
         <f t="shared" si="0"/>
-        <v>16.833333333333332</v>
+        <v>14.999999999999998</v>
       </c>
       <c r="W26">
         <f t="shared" si="0"/>
@@ -4103,11 +4106,11 @@
       </c>
       <c r="X26">
         <f t="shared" si="0"/>
-        <v>18.333333333333332</v>
+        <v>17.666666666666668</v>
       </c>
       <c r="Y26">
         <f t="shared" si="0"/>
-        <v>16.333333333333332</v>
+        <v>15.833333333333334</v>
       </c>
       <c r="Z26">
         <f t="shared" si="0"/>
@@ -4133,31 +4136,31 @@
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>5.833333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>8.3333333333333339</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="H29">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
-        <v>7.333333333333333</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
-        <v>3.8333333333333335</v>
+        <v>4</v>
       </c>
       <c r="K29">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
@@ -4189,7 +4192,7 @@
       </c>
       <c r="S29">
         <f t="shared" si="1"/>
-        <v>4.833333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="T29">
         <f t="shared" si="1"/>
@@ -4226,7 +4229,7 @@
       </c>
       <c r="C30">
         <f t="shared" ref="C30:Z30" si="2">AVERAGE(C8:C13)</f>
-        <v>8.6666666666666661</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
@@ -4242,15 +4245,15 @@
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
-        <v>5.666666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>6.833333333333333</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J30">
         <f t="shared" si="2"/>
@@ -4258,15 +4261,15 @@
       </c>
       <c r="K30">
         <f t="shared" si="2"/>
-        <v>5.833333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="L30">
         <f t="shared" si="2"/>
-        <v>5.166666666666667</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="M30">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="N30">
         <f t="shared" si="2"/>
@@ -4282,19 +4285,19 @@
       </c>
       <c r="Q30">
         <f t="shared" si="2"/>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="R30">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3.8333333333333335</v>
       </c>
       <c r="S30">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="T30">
         <f t="shared" si="2"/>
-        <v>1.6666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="U30">
         <f t="shared" si="2"/>
@@ -4302,7 +4305,7 @@
       </c>
       <c r="V30">
         <f t="shared" si="2"/>
-        <v>1.6666666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="W30">
         <f t="shared" si="2"/>
@@ -4310,7 +4313,7 @@
       </c>
       <c r="X30">
         <f t="shared" si="2"/>
-        <v>4.166666666666667</v>
+        <v>3.8333333333333335</v>
       </c>
       <c r="Y30">
         <f t="shared" si="2"/>
@@ -4331,7 +4334,7 @@
       </c>
       <c r="D31">
         <f t="shared" si="3"/>
-        <v>8.8333333333333339</v>
+        <v>9.5</v>
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
@@ -4343,11 +4346,11 @@
       </c>
       <c r="G31">
         <f t="shared" si="3"/>
-        <v>7.666666666666667</v>
+        <v>8.1666666666666661</v>
       </c>
       <c r="H31">
         <f t="shared" si="3"/>
-        <v>8.8333333333333339</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
@@ -4355,7 +4358,7 @@
       </c>
       <c r="J31">
         <f t="shared" si="3"/>
-        <v>9.1666666666666661</v>
+        <v>9.5</v>
       </c>
       <c r="K31">
         <f t="shared" si="3"/>
@@ -4363,7 +4366,7 @@
       </c>
       <c r="L31">
         <f t="shared" si="3"/>
-        <v>6.333333333333333</v>
+        <v>6.5</v>
       </c>
       <c r="M31">
         <f t="shared" si="3"/>
@@ -4403,7 +4406,7 @@
       </c>
       <c r="V31">
         <f t="shared" si="3"/>
-        <v>4.333333333333333</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="W31">
         <f t="shared" si="3"/>
@@ -4415,7 +4418,7 @@
       </c>
       <c r="Y31">
         <f t="shared" si="3"/>
-        <v>2.8333333333333335</v>
+        <v>2.5</v>
       </c>
       <c r="Z31">
         <f t="shared" si="3"/>

--- a/Hotelprojekt_vo da uebung/UseCase Bewertung.xlsx
+++ b/Hotelprojekt_vo da uebung/UseCase Bewertung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -308,76 +308,76 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>Reservierung buchen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tagesabschluss</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Check In</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rechnung erstellen</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Stammdaten</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Reservierung buchen</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tagesabschluss</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Check In</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Zimmerzuteilung</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Rechnung erstellen</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>Check Out</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Belegungsvorschau</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>Check Out</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>Rechnung legen</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Zimmer wechseln</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Monatsabschluss</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Zwischenrechnung erstellen</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Reservierung ändern</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Monatsabschluss</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Zimmer wechseln</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Rechnung legen</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Zwischenrechnung erstellen</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Jahresabschluss</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Auswertung Back Office</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>Reservierung stornieren</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Zimmerstatus setzen</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Jahresabschluss</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
+                  <c:v>Reservierung bestätigen</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Auswertung Front Office</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>Optionen bearbeiten</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>Auswertung Front Office</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Reservierung stornieren</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Auswertung Journale</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>Reservierung bestätigen</c:v>
+                  <c:v>Akonto buchen</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Akonto buchen</c:v>
+                  <c:v>Buchen von Extraleistungen</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>Aufenthalt verlängern</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Buchen von Extraleistungen</c:v>
+                  <c:v>Auswertung Journale</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -389,76 +389,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>35.083333333333329</c:v>
+                  <c:v>38.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.5</c:v>
+                  <c:v>35.416666666666671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.833333333333336</c:v>
+                  <c:v>34.916666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37.416666666666664</c:v>
+                  <c:v>33.416666666666671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>32.583333333333329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.000000000000007</c:v>
+                  <c:v>31.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.916666666666668</c:v>
+                  <c:v>28.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.583333333333332</c:v>
+                  <c:v>25.916666666666668</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.916666666666664</c:v>
+                  <c:v>24.083333333333336</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25.583333333333332</c:v>
+                  <c:v>23.083333333333332</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.083333333333336</c:v>
+                  <c:v>21.916666666666668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23.5</c:v>
+                  <c:v>21.833333333333332</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22.000000000000004</c:v>
+                  <c:v>20.166666666666668</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>19.833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>19.833333333333332</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>21</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>19.25</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19.416666666666668</c:v>
+                  <c:v>17.916666666666664</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21</c:v>
+                  <c:v>17.25</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>14.999999999999998</c:v>
+                  <c:v>16.75</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18.916666666666664</c:v>
+                  <c:v>16.583333333333336</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>17.666666666666668</c:v>
+                  <c:v>15.583333333333334</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15.833333333333334</c:v>
+                  <c:v>14.75</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17.083333333333336</c:v>
+                  <c:v>12.833333333333332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -473,11 +473,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="36009984"/>
-        <c:axId val="101652672"/>
+        <c:axId val="91616768"/>
+        <c:axId val="90118336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="36009984"/>
+        <c:axId val="91616768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,7 +486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101652672"/>
+        <c:crossAx val="90118336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -494,7 +494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101652672"/>
+        <c:axId val="90118336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -505,7 +505,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36009984"/>
+        <c:crossAx val="91616768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -572,76 +572,76 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>Reservierung buchen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tagesabschluss</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Check In</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rechnung erstellen</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Stammdaten</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Reservierung buchen</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tagesabschluss</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Check In</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Zimmerzuteilung</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Rechnung erstellen</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>Check Out</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Belegungsvorschau</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>Check Out</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>Rechnung legen</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Zimmer wechseln</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Monatsabschluss</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Zwischenrechnung erstellen</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Reservierung ändern</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Monatsabschluss</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Zimmer wechseln</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Rechnung legen</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Zwischenrechnung erstellen</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Jahresabschluss</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Auswertung Back Office</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>Reservierung stornieren</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Zimmerstatus setzen</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Jahresabschluss</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
+                  <c:v>Reservierung bestätigen</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Auswertung Front Office</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>Optionen bearbeiten</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>Auswertung Front Office</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Reservierung stornieren</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Auswertung Journale</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>Reservierung bestätigen</c:v>
+                  <c:v>Akonto buchen</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Akonto buchen</c:v>
+                  <c:v>Buchen von Extraleistungen</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>Aufenthalt verlängern</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Buchen von Extraleistungen</c:v>
+                  <c:v>Auswertung Journale</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -653,76 +653,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>4.666666666666667</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>7.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.166666666666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.6666666666666665</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.6666666666666665</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.8333333333333335</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.833333333333333</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>6.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.166666666666667</c:v>
+                  <c:v>5.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>6.333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.166666666666667</c:v>
+                  <c:v>4.833333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,11 +737,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="36011520"/>
-        <c:axId val="101652096"/>
+        <c:axId val="56266752"/>
+        <c:axId val="90117760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="36011520"/>
+        <c:axId val="56266752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,7 +750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101652096"/>
+        <c:crossAx val="90117760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -758,7 +758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101652096"/>
+        <c:axId val="90117760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,7 +769,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36011520"/>
+        <c:crossAx val="56266752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -836,76 +836,76 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>Reservierung buchen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tagesabschluss</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Check In</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rechnung erstellen</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Stammdaten</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Reservierung buchen</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tagesabschluss</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Check In</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Zimmerzuteilung</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Rechnung erstellen</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>Check Out</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Belegungsvorschau</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>Check Out</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>Rechnung legen</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Zimmer wechseln</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Monatsabschluss</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Zwischenrechnung erstellen</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Reservierung ändern</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Monatsabschluss</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Zimmer wechseln</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Rechnung legen</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Zwischenrechnung erstellen</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Jahresabschluss</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Auswertung Back Office</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>Reservierung stornieren</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Zimmerstatus setzen</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Jahresabschluss</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
+                  <c:v>Reservierung bestätigen</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Auswertung Front Office</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>Optionen bearbeiten</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>Auswertung Front Office</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Reservierung stornieren</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Auswertung Journale</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>Reservierung bestätigen</c:v>
+                  <c:v>Akonto buchen</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Akonto buchen</c:v>
+                  <c:v>Buchen von Extraleistungen</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>Aufenthalt verlängern</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Buchen von Extraleistungen</c:v>
+                  <c:v>Auswertung Journale</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -917,76 +917,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>7.333333333333333</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.5</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>7.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>7.333333333333333</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5.833333333333333</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.166666666666667</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>3.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>4.833333333333333</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>5.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>4.833333333333333</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>3.8333333333333335</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.166666666666667</c:v>
-                </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>1.6666666666666667</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>3.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
+                  <c:v>3.1666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>3.8333333333333335</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.6666666666666665</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.1666666666666665</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.8333333333333335</c:v>
+                  <c:v>2.3333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2.3333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3333333333333335</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1001,11 +1001,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="36098048"/>
-        <c:axId val="36218560"/>
+        <c:axId val="56267264"/>
+        <c:axId val="56403648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="36098048"/>
+        <c:axId val="56267264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,7 +1014,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36218560"/>
+        <c:crossAx val="56403648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1022,7 +1022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36218560"/>
+        <c:axId val="56403648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1033,7 +1033,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36098048"/>
+        <c:crossAx val="56267264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1070,6 +1070,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1100,76 +1101,76 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>Reservierung buchen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tagesabschluss</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Check In</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rechnung erstellen</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Stammdaten</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Reservierung buchen</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tagesabschluss</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Check In</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Zimmerzuteilung</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Rechnung erstellen</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>Check Out</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Belegungsvorschau</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>Check Out</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>Rechnung legen</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Zimmer wechseln</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Monatsabschluss</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Zwischenrechnung erstellen</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Reservierung ändern</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Monatsabschluss</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Zimmer wechseln</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Rechnung legen</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Zwischenrechnung erstellen</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Jahresabschluss</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Auswertung Back Office</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>Reservierung stornieren</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Zimmerstatus setzen</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Jahresabschluss</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
+                  <c:v>Reservierung bestätigen</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Auswertung Front Office</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>Optionen bearbeiten</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>Auswertung Front Office</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Reservierung stornieren</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Auswertung Journale</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>Reservierung bestätigen</c:v>
+                  <c:v>Akonto buchen</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Akonto buchen</c:v>
+                  <c:v>Buchen von Extraleistungen</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>Aufenthalt verlängern</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Buchen von Extraleistungen</c:v>
+                  <c:v>Auswertung Journale</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1181,76 +1182,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>8.8333333333333339</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
+                  <c:v>8.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>9.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>7.833333333333333</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.8333333333333339</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.1666666666666661</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.1666666666666661</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>3.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>5.666666666666667</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.6666666666666665</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.833333333333333</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.166666666666667</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>7.666666666666667</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>4.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.1666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>6.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.666666666666667</c:v>
+                  <c:v>6.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>2.1666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.166666666666667</c:v>
+                  <c:v>1.8333333333333333</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.8333333333333333</c:v>
+                  <c:v>3.8333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.8333333333333335</c:v>
+                  <c:v>3.3333333333333335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1265,11 +1266,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="36098560"/>
-        <c:axId val="36220288"/>
+        <c:axId val="56267776"/>
+        <c:axId val="56405376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="36098560"/>
+        <c:axId val="56267776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1278,7 +1279,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36220288"/>
+        <c:crossAx val="56405376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1286,7 +1287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36220288"/>
+        <c:axId val="56405376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,13 +1298,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36098560"/>
+        <c:crossAx val="56267776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1333,6 +1335,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1363,76 +1366,76 @@
               <c:strCache>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>Reservierung buchen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tagesabschluss</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Check In</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Rechnung erstellen</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Stammdaten</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Reservierung buchen</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tagesabschluss</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Check In</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Zimmerzuteilung</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Rechnung erstellen</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>Check Out</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Belegungsvorschau</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>Check Out</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>Rechnung legen</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Zimmer wechseln</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Monatsabschluss</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Zwischenrechnung erstellen</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>Reservierung ändern</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Monatsabschluss</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Zimmer wechseln</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Rechnung legen</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Zwischenrechnung erstellen</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>Jahresabschluss</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>Auswertung Back Office</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>Reservierung stornieren</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>Zimmerstatus setzen</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>Jahresabschluss</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
+                  <c:v>Reservierung bestätigen</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Auswertung Front Office</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>Optionen bearbeiten</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>Auswertung Front Office</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Reservierung stornieren</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Auswertung Journale</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>Reservierung bestätigen</c:v>
+                  <c:v>Akonto buchen</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Akonto buchen</c:v>
+                  <c:v>Buchen von Extraleistungen</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>Aufenthalt verlängern</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Buchen von Extraleistungen</c:v>
+                  <c:v>Auswertung Journale</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1444,76 +1447,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.833333333333333</c:v>
-                </c:pt>
                 <c:pt idx="3">
+                  <c:v>3.1666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>8.5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>2.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>3.1666666666666665</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.6666666666666665</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="12">
                   <c:v>4.166666666666667</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.8333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.166666666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.1666666666666665</c:v>
-                </c:pt>
                 <c:pt idx="13">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>4.333333333333333</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1.6666666666666667</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.3333333333333335</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.333333333333333</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>2.1666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1666666666666665</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2.1666666666666665</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3</c:v>
+                  <c:v>4.333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1528,11 +1531,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="36099072"/>
-        <c:axId val="36222016"/>
+        <c:axId val="56268288"/>
+        <c:axId val="56407104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="36099072"/>
+        <c:axId val="56268288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1541,7 +1544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36222016"/>
+        <c:crossAx val="56407104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1549,7 +1552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="36222016"/>
+        <c:axId val="56407104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1560,13 +1563,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36099072"/>
+        <c:crossAx val="56268288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2026,37 +2030,37 @@
   <dimension ref="A1:AD32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="1.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2064,76 +2068,76 @@
       <c r="A1" s="1"/>
       <c r="B1" s="7"/>
       <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
       <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
       <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" t="s">
-        <v>23</v>
-      </c>
       <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V1" t="s">
-        <v>33</v>
-      </c>
       <c r="W1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="X1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y1" t="s">
         <v>18</v>
       </c>
       <c r="Z1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2144,76 +2148,76 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2">
         <v>9</v>
       </c>
-      <c r="F2" s="2">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2">
-        <v>9</v>
-      </c>
-      <c r="H2" s="2">
-        <v>7</v>
-      </c>
       <c r="I2" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J2" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K2" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L2" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M2" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N2" s="2">
         <v>6</v>
       </c>
       <c r="O2" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P2" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q2" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R2" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S2" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T2" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U2" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V2" s="2">
         <v>5</v>
       </c>
       <c r="W2" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="X2" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y2" s="2">
         <v>7</v>
       </c>
       <c r="Z2" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2221,77 +2225,77 @@
       <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4">
-        <v>6</v>
+      <c r="C3" s="4">
+        <v>6</v>
+      </c>
+      <c r="D3" s="11">
+        <v>7</v>
       </c>
       <c r="E3" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" s="11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H3" s="11">
-        <v>5</v>
-      </c>
-      <c r="I3" s="4">
-        <v>8</v>
-      </c>
-      <c r="J3" s="11">
-        <v>4</v>
-      </c>
-      <c r="K3" s="4">
+        <v>8</v>
+      </c>
+      <c r="I3" s="11">
+        <v>4</v>
+      </c>
+      <c r="J3" s="4">
+        <v>8</v>
+      </c>
+      <c r="K3" s="11">
         <v>4</v>
       </c>
       <c r="L3" s="11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M3" s="11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N3" s="11">
-        <v>4</v>
-      </c>
-      <c r="O3" s="11">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="O3" s="4">
+        <v>4</v>
       </c>
       <c r="P3" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R3" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S3" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T3" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U3" s="11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V3" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W3" s="11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="X3" s="11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y3" s="11">
         <v>8</v>
       </c>
       <c r="Z3" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2299,77 +2303,77 @@
       <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" s="4">
+        <v>8</v>
+      </c>
+      <c r="D4" s="11">
         <v>8</v>
       </c>
       <c r="E4" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G4" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H4" s="11">
-        <v>5</v>
-      </c>
-      <c r="I4" s="4">
-        <v>8</v>
-      </c>
-      <c r="J4" s="11">
-        <v>3</v>
-      </c>
-      <c r="K4" s="4">
-        <v>2</v>
-      </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="I4" s="11">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4">
+        <v>8</v>
+      </c>
+      <c r="K4" s="11">
+        <v>5</v>
+      </c>
+      <c r="L4" s="4">
+        <v>8</v>
+      </c>
+      <c r="M4" s="11">
+        <v>1</v>
       </c>
       <c r="N4" s="11">
-        <v>5</v>
-      </c>
-      <c r="O4" s="11">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2</v>
       </c>
       <c r="P4" s="11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R4" s="11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S4" s="11">
         <v>1</v>
       </c>
       <c r="T4" s="11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="U4" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V4" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="W4" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X4" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y4" s="11">
         <v>5</v>
       </c>
       <c r="Z4" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2377,32 +2381,32 @@
       <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2</v>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11">
+        <v>6</v>
       </c>
       <c r="E5" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="11">
         <v>4</v>
       </c>
       <c r="G5" s="11">
+        <v>3</v>
+      </c>
+      <c r="H5" s="11">
         <v>10</v>
       </c>
-      <c r="H5" s="11">
-        <v>4</v>
-      </c>
       <c r="I5" s="11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J5" s="11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K5" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L5" s="11">
         <v>5</v>
@@ -2411,43 +2415,43 @@
         <v>5</v>
       </c>
       <c r="N5" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O5" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P5" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R5" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S5" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T5" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U5" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V5" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W5" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="X5" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Y5" s="11">
         <v>6</v>
       </c>
       <c r="Z5" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2468,64 +2472,64 @@
         <v>5</v>
       </c>
       <c r="G6" s="11">
+        <v>5</v>
+      </c>
+      <c r="H6" s="11">
         <v>9</v>
       </c>
-      <c r="H6" s="11">
-        <v>5</v>
-      </c>
       <c r="I6" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J6" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K6" s="11">
         <v>5</v>
       </c>
       <c r="L6" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M6" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N6" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O6" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P6" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q6" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R6" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S6" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T6" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U6" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V6" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W6" s="11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X6" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y6" s="11">
         <v>7</v>
       </c>
       <c r="Z6" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:26" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2534,28 +2538,28 @@
         <v>5</v>
       </c>
       <c r="C7" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E7" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="6">
         <v>6</v>
       </c>
       <c r="G7" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J7" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K7" s="6">
         <v>4</v>
@@ -2573,28 +2577,28 @@
         <v>4</v>
       </c>
       <c r="P7" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R7" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S7" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T7" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U7" s="6">
         <v>5</v>
       </c>
       <c r="V7" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W7" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X7" s="6">
         <v>5</v>
@@ -2617,28 +2621,28 @@
         <v>10</v>
       </c>
       <c r="D8" s="11">
+        <v>8</v>
+      </c>
+      <c r="E8" s="11">
+        <v>6</v>
+      </c>
+      <c r="F8" s="11">
+        <v>7</v>
+      </c>
+      <c r="G8" s="11">
         <v>10</v>
       </c>
-      <c r="E8" s="11">
-        <v>8</v>
-      </c>
-      <c r="F8" s="11">
-        <v>6</v>
-      </c>
-      <c r="G8" s="11">
-        <v>4</v>
-      </c>
       <c r="H8" s="11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I8" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L8" s="11">
         <v>8</v>
@@ -2647,34 +2651,34 @@
         <v>8</v>
       </c>
       <c r="N8" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O8" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P8" s="11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q8" s="11">
         <v>2</v>
       </c>
       <c r="R8" s="11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S8" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T8" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U8" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V8" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W8" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X8" s="11">
         <v>2</v>
@@ -2695,73 +2699,73 @@
         <v>10</v>
       </c>
       <c r="D9" s="11">
+        <v>9</v>
+      </c>
+      <c r="E9" s="11">
+        <v>8</v>
+      </c>
+      <c r="F9" s="11">
+        <v>6</v>
+      </c>
+      <c r="G9" s="11">
         <v>10</v>
       </c>
-      <c r="E9" s="11">
-        <v>9</v>
-      </c>
-      <c r="F9" s="11">
-        <v>8</v>
-      </c>
-      <c r="G9" s="11">
-        <v>5</v>
-      </c>
       <c r="H9" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I9" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9" s="11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L9" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M9" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N9" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O9" s="11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P9" s="11">
         <v>1</v>
       </c>
       <c r="Q9" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R9" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S9" s="11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T9" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U9" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V9" s="11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="W9" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X9" s="11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Y9" s="11">
         <v>1</v>
       </c>
       <c r="Z9" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2770,61 +2774,61 @@
         <v>2</v>
       </c>
       <c r="C10" s="11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D10" s="11">
+        <v>8</v>
+      </c>
+      <c r="E10" s="11">
         <v>10</v>
       </c>
-      <c r="E10" s="11">
-        <v>8</v>
-      </c>
       <c r="F10" s="11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G10" s="11">
+        <v>2</v>
+      </c>
+      <c r="H10" s="11">
         <v>9</v>
       </c>
-      <c r="H10" s="11">
-        <v>7</v>
-      </c>
       <c r="I10" s="11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J10" s="11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K10" s="11">
         <v>5</v>
       </c>
       <c r="L10" s="11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M10" s="11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N10" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O10" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P10" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q10" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10" s="11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S10" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T10" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U10" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V10" s="11">
         <v>1</v>
@@ -2833,13 +2837,13 @@
         <v>4</v>
       </c>
       <c r="X10" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y10" s="11">
         <v>4</v>
       </c>
       <c r="Z10" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2851,73 +2855,73 @@
         <v>10</v>
       </c>
       <c r="D11" s="11">
+        <v>8</v>
+      </c>
+      <c r="E11" s="11">
+        <v>5</v>
+      </c>
+      <c r="F11" s="11">
+        <v>7</v>
+      </c>
+      <c r="G11" s="11">
         <v>10</v>
       </c>
-      <c r="E11" s="11">
-        <v>8</v>
-      </c>
-      <c r="F11" s="11">
-        <v>5</v>
-      </c>
-      <c r="G11" s="11">
-        <v>5</v>
-      </c>
       <c r="H11" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I11" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J11" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K11" s="11">
         <v>5</v>
       </c>
       <c r="L11" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M11" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N11" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O11" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P11" s="11">
         <v>3</v>
       </c>
       <c r="Q11" s="11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R11" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S11" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T11" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U11" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V11" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W11" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X11" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y11" s="11">
         <v>3</v>
       </c>
       <c r="Z11" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2932,64 +2936,64 @@
         <v>10</v>
       </c>
       <c r="E12" s="11">
+        <v>7</v>
+      </c>
+      <c r="F12" s="11">
+        <v>9</v>
+      </c>
+      <c r="G12" s="11">
         <v>10</v>
       </c>
-      <c r="F12" s="11">
-        <v>7</v>
-      </c>
-      <c r="G12" s="11">
-        <v>6</v>
-      </c>
       <c r="H12" s="11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I12" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K12" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L12" s="11">
+        <v>7</v>
+      </c>
+      <c r="M12" s="11">
         <v>10</v>
       </c>
-      <c r="M12" s="11">
-        <v>7</v>
-      </c>
       <c r="N12" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O12" s="11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P12" s="11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q12" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R12" s="11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S12" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T12" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U12" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V12" s="11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="W12" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X12" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="11">
         <v>2</v>
@@ -3003,32 +3007,32 @@
       <c r="B13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="11">
-        <v>2</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C13" s="4">
         <v>10</v>
       </c>
+      <c r="D13" s="11">
+        <v>8</v>
+      </c>
       <c r="E13" s="11">
         <v>8</v>
       </c>
       <c r="F13" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H13" s="11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13" s="11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J13" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K13" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L13" s="11">
         <v>1</v>
@@ -3037,34 +3041,34 @@
         <v>1</v>
       </c>
       <c r="N13" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O13" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P13" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R13" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S13" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T13" s="11">
         <v>1</v>
       </c>
       <c r="U13" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V13" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W13" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X13" s="11">
         <v>2</v>
@@ -3073,7 +3077,7 @@
         <v>2</v>
       </c>
       <c r="Z13" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3084,19 +3088,19 @@
         <v>0</v>
       </c>
       <c r="C14" s="2">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2">
         <v>10</v>
-      </c>
-      <c r="D14" s="2">
-        <v>7</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2">
         <v>10</v>
-      </c>
-      <c r="G14" s="2">
-        <v>9</v>
       </c>
       <c r="H14" s="2">
         <v>9</v>
@@ -3108,52 +3112,52 @@
         <v>10</v>
       </c>
       <c r="K14" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L14" s="2">
+        <v>3</v>
+      </c>
+      <c r="M14" s="2">
         <v>10</v>
       </c>
-      <c r="M14" s="2">
-        <v>3</v>
-      </c>
       <c r="N14" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O14" s="2">
         <v>5</v>
       </c>
       <c r="P14" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="2">
         <v>9</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="R14" s="2">
+        <v>4</v>
+      </c>
+      <c r="S14" s="2">
         <v>10</v>
       </c>
-      <c r="R14" s="2">
-        <v>10</v>
-      </c>
-      <c r="S14" s="2">
-        <v>4</v>
-      </c>
       <c r="T14" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U14" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V14" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W14" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X14" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Y14" s="2">
         <v>2</v>
       </c>
       <c r="Z14" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3165,55 +3169,55 @@
         <v>10</v>
       </c>
       <c r="D15" s="11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E15" s="11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F15" s="11">
         <v>9</v>
       </c>
       <c r="G15" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H15" s="11">
         <v>9</v>
       </c>
       <c r="I15" s="11">
+        <v>7</v>
+      </c>
+      <c r="J15" s="11">
         <v>9</v>
       </c>
-      <c r="J15" s="11">
-        <v>7</v>
-      </c>
       <c r="K15" s="11">
         <v>7</v>
       </c>
       <c r="L15" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M15" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15" s="11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O15" s="11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P15" s="11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q15" s="11">
         <v>8</v>
       </c>
       <c r="R15" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S15" s="11">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T15" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U15" s="11">
         <v>6</v>
@@ -3222,16 +3226,16 @@
         <v>2</v>
       </c>
       <c r="W15" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X15" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Y15" s="11">
         <v>4</v>
       </c>
       <c r="Z15" s="11">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3240,13 +3244,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D16" s="11">
+        <v>9</v>
+      </c>
+      <c r="E16" s="11">
         <v>10</v>
-      </c>
-      <c r="E16" s="11">
-        <v>9</v>
       </c>
       <c r="F16" s="11">
         <v>10</v>
@@ -3255,52 +3259,52 @@
         <v>8</v>
       </c>
       <c r="H16" s="11">
+        <v>8</v>
+      </c>
+      <c r="I16" s="11">
         <v>10</v>
       </c>
-      <c r="I16" s="11">
-        <v>8</v>
-      </c>
       <c r="J16" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K16" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L16" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" s="11">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O16" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P16" s="11">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q16" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R16" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S16" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T16" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U16" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V16" s="11">
         <v>2</v>
       </c>
       <c r="W16" s="11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="X16" s="11">
         <v>2</v>
@@ -3318,76 +3322,76 @@
         <v>3</v>
       </c>
       <c r="C17" s="11">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D17" s="11">
+        <v>5</v>
+      </c>
+      <c r="E17" s="11">
         <v>10</v>
       </c>
-      <c r="E17" s="11">
-        <v>5</v>
-      </c>
       <c r="F17" s="11">
+        <v>7</v>
+      </c>
+      <c r="G17" s="11">
+        <v>6</v>
+      </c>
+      <c r="H17" s="11">
+        <v>6</v>
+      </c>
+      <c r="I17" s="11">
         <v>10</v>
       </c>
-      <c r="G17" s="11">
-        <v>6</v>
-      </c>
-      <c r="H17" s="11">
-        <v>7</v>
-      </c>
-      <c r="I17" s="11">
-        <v>8</v>
-      </c>
       <c r="J17" s="11">
+        <v>8</v>
+      </c>
+      <c r="K17" s="11">
         <v>10</v>
       </c>
-      <c r="K17" s="11">
-        <v>3</v>
-      </c>
       <c r="L17" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M17" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17" s="11">
+        <v>3</v>
+      </c>
+      <c r="O17" s="11">
+        <v>3</v>
+      </c>
+      <c r="P17" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>7</v>
+      </c>
+      <c r="R17" s="11">
+        <v>2</v>
+      </c>
+      <c r="S17" s="11">
+        <v>5</v>
+      </c>
+      <c r="T17" s="11">
         <v>10</v>
       </c>
-      <c r="O17" s="11">
-        <v>3</v>
-      </c>
-      <c r="P17" s="11">
-        <v>7</v>
-      </c>
-      <c r="Q17" s="11">
-        <v>5</v>
-      </c>
-      <c r="R17" s="11">
-        <v>5</v>
-      </c>
-      <c r="S17" s="11">
-        <v>2</v>
-      </c>
-      <c r="T17" s="11">
-        <v>7</v>
-      </c>
       <c r="U17" s="11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V17" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W17" s="11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="X17" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y17" s="11">
         <v>2</v>
       </c>
       <c r="Z17" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD17" s="4" t="s">
         <v>35</v>
@@ -3402,35 +3406,35 @@
         <v>10</v>
       </c>
       <c r="D18" s="11">
+        <v>9</v>
+      </c>
+      <c r="E18" s="11">
         <v>10</v>
-      </c>
-      <c r="E18" s="11">
-        <v>9</v>
       </c>
       <c r="F18" s="11">
         <v>10</v>
       </c>
       <c r="G18" s="11">
+        <v>10</v>
+      </c>
+      <c r="H18" s="11">
         <v>9</v>
       </c>
-      <c r="H18" s="11">
+      <c r="I18" s="11">
         <v>10</v>
       </c>
-      <c r="I18" s="11">
-        <v>8</v>
-      </c>
       <c r="J18" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K18" s="11">
         <v>8</v>
       </c>
       <c r="L18" s="11">
+        <v>3</v>
+      </c>
+      <c r="M18" s="11">
         <v>9</v>
       </c>
-      <c r="M18" s="11">
-        <v>3</v>
-      </c>
       <c r="N18" s="11">
         <v>8</v>
       </c>
@@ -3438,7 +3442,7 @@
         <v>8</v>
       </c>
       <c r="P18" s="11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q18" s="11">
         <v>7</v>
@@ -3447,28 +3451,28 @@
         <v>8</v>
       </c>
       <c r="S18" s="11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T18" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U18" s="11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V18" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W18" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X18" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y18" s="11">
         <v>2</v>
       </c>
       <c r="Z18" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:30" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3477,31 +3481,31 @@
         <v>5</v>
       </c>
       <c r="C19" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="6">
+        <v>8</v>
+      </c>
+      <c r="E19" s="6">
         <v>10</v>
-      </c>
-      <c r="E19" s="6">
-        <v>8</v>
       </c>
       <c r="F19" s="6">
         <v>10</v>
       </c>
       <c r="G19" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H19" s="6">
+        <v>8</v>
+      </c>
+      <c r="I19" s="6">
         <v>10</v>
       </c>
-      <c r="I19" s="6">
-        <v>8</v>
-      </c>
       <c r="J19" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K19" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L19" s="6">
         <v>6</v>
@@ -3510,43 +3514,43 @@
         <v>6</v>
       </c>
       <c r="N19" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O19" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P19" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q19" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R19" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S19" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T19" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U19" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V19" s="6">
         <v>2</v>
       </c>
       <c r="W19" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X19" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y19" s="6">
         <v>4</v>
       </c>
       <c r="Z19" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3557,67 +3561,67 @@
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H20" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I20" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J20" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K20" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L20" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M20" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N20" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O20" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P20" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R20" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S20" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T20" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U20" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W20" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X20" s="2">
         <v>2</v>
@@ -3626,7 +3630,7 @@
         <v>1</v>
       </c>
       <c r="Z20" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3635,23 +3639,23 @@
         <v>1</v>
       </c>
       <c r="C21" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F21" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" s="11">
+        <v>2</v>
+      </c>
+      <c r="H21" s="11">
         <v>9</v>
       </c>
-      <c r="H21" s="11">
-        <v>2</v>
-      </c>
       <c r="I21" s="11">
         <v>2</v>
       </c>
@@ -3659,52 +3663,52 @@
         <v>2</v>
       </c>
       <c r="K21" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M21" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N21" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O21" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R21" s="11">
         <v>1</v>
       </c>
       <c r="S21" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T21" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U21" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V21" s="11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W21" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X21" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y21" s="11">
         <v>3</v>
       </c>
       <c r="Z21" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3716,19 +3720,19 @@
         <v>8</v>
       </c>
       <c r="D22" s="11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E22" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F22" s="11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G22" s="11">
         <v>8</v>
       </c>
       <c r="H22" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I22" s="11">
         <v>2</v>
@@ -3740,49 +3744,49 @@
         <v>3</v>
       </c>
       <c r="L22" s="11">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M22" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N22" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O22" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P22" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R22" s="11">
         <v>1</v>
       </c>
       <c r="S22" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T22" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U22" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V22" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W22" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X22" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y22" s="11">
         <v>2</v>
       </c>
       <c r="Z22" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3791,76 +3795,76 @@
         <v>3</v>
       </c>
       <c r="C23" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" s="11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E23" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F23" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23" s="11">
+        <v>2</v>
+      </c>
+      <c r="H23" s="11">
         <v>10</v>
       </c>
-      <c r="H23" s="11">
-        <v>2</v>
-      </c>
       <c r="I23" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J23" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K23" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L23" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M23" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N23" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O23" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P23" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q23" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R23" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S23" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T23" s="11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U23" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V23" s="11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W23" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X23" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y23" s="11">
         <v>2</v>
       </c>
       <c r="Z23" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -3869,58 +3873,58 @@
         <v>4</v>
       </c>
       <c r="C24" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D24" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E24" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" s="11">
         <v>5</v>
       </c>
       <c r="G24" s="11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H24" s="11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I24" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J24" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K24" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L24" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" s="11">
         <v>4</v>
       </c>
       <c r="O24" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P24" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q24" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R24" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S24" s="11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T24" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U24" s="11">
         <v>5</v>
@@ -3929,7 +3933,7 @@
         <v>5</v>
       </c>
       <c r="W24" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X24" s="11">
         <v>3</v>
@@ -3938,7 +3942,7 @@
         <v>3</v>
       </c>
       <c r="Z24" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:30" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3947,31 +3951,31 @@
         <v>5</v>
       </c>
       <c r="C25" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D25" s="6">
         <v>5</v>
       </c>
       <c r="E25" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F25" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G25" s="6">
         <v>8</v>
       </c>
       <c r="H25" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I25" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J25" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K25" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L25" s="6">
         <v>2</v>
@@ -3983,138 +3987,138 @@
         <v>3</v>
       </c>
       <c r="O25" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P25" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R25" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S25" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T25" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U25" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V25" s="6">
         <v>4</v>
       </c>
       <c r="W25" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X25" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y25" s="6">
         <v>2</v>
       </c>
       <c r="Z25" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C26">
-        <f t="shared" ref="C26:Z26" si="0">AVERAGE(C2:C7)+AVERAGE(C8:C13)*2+AVERAGE(C14:C19)*1.5+AVERAGE(C20:C25)*0.5</f>
-        <v>35.083333333333329</v>
+        <f>AVERAGE(C2:C7)+AVERAGE(C8:C13)*2+AVERAGE(C14:C19)*1.5+AVERAGE(C20:C25)*0</f>
+        <v>38.75</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>41.5</v>
+        <f>AVERAGE(D2:D7)+AVERAGE(D8:D13)*2+AVERAGE(D14:D19)*1.5+AVERAGE(D20:D25)*0</f>
+        <v>35.416666666666671</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
-        <v>37.833333333333336</v>
+        <f>AVERAGE(E2:E7)+AVERAGE(E8:E13)*2+AVERAGE(E14:E19)*1.5+AVERAGE(E20:E25)*0</f>
+        <v>34.916666666666664</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
-        <v>37.416666666666664</v>
+        <f>AVERAGE(F2:F7)+AVERAGE(F8:F13)*2+AVERAGE(F14:F19)*1.5+AVERAGE(F20:F25)*0</f>
+        <v>33.416666666666671</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f>AVERAGE(G2:G7)+AVERAGE(G8:G13)*2+AVERAGE(G14:G19)*1.5+AVERAGE(G20:G25)*0</f>
+        <v>32.583333333333329</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
-        <v>35.000000000000007</v>
+        <f>AVERAGE(H2:H7)+AVERAGE(H8:H13)*2+AVERAGE(H14:H19)*1.5+AVERAGE(H20:H25)*0</f>
+        <v>31.75</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
-        <v>27.916666666666668</v>
+        <f>AVERAGE(I2:I7)+AVERAGE(I8:I13)*2+AVERAGE(I14:I19)*1.5+AVERAGE(I20:I25)*0</f>
+        <v>28.25</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
-        <v>29.583333333333332</v>
+        <f>AVERAGE(J2:J7)+AVERAGE(J8:J13)*2+AVERAGE(J14:J19)*1.5+AVERAGE(J20:J25)*0</f>
+        <v>25.916666666666668</v>
       </c>
       <c r="K26">
-        <f t="shared" si="0"/>
-        <v>23.916666666666664</v>
+        <f>AVERAGE(K2:K7)+AVERAGE(K8:K13)*2+AVERAGE(K14:K19)*1.5+AVERAGE(K20:K25)*0</f>
+        <v>24.083333333333336</v>
       </c>
       <c r="L26">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f>AVERAGE(L2:L7)+AVERAGE(L8:L13)*2+AVERAGE(L14:L19)*1.5+AVERAGE(L20:L25)*0</f>
+        <v>23.5</v>
       </c>
       <c r="M26">
-        <f t="shared" si="0"/>
-        <v>25.583333333333332</v>
+        <f>AVERAGE(M2:M7)+AVERAGE(M8:M13)*2+AVERAGE(M14:M19)*1.5+AVERAGE(M20:M25)*0</f>
+        <v>23.083333333333332</v>
       </c>
       <c r="N26">
-        <f t="shared" si="0"/>
-        <v>26.083333333333336</v>
+        <f>AVERAGE(N2:N7)+AVERAGE(N8:N13)*2+AVERAGE(N14:N19)*1.5+AVERAGE(N20:N25)*0</f>
+        <v>21.916666666666668</v>
       </c>
       <c r="O26">
-        <f t="shared" si="0"/>
-        <v>23.5</v>
+        <f>AVERAGE(O2:O7)+AVERAGE(O8:O13)*2+AVERAGE(O14:O19)*1.5+AVERAGE(O20:O25)*0</f>
+        <v>21.833333333333332</v>
       </c>
       <c r="P26">
-        <f t="shared" si="0"/>
-        <v>22.000000000000004</v>
+        <f>AVERAGE(P2:P7)+AVERAGE(P8:P13)*2+AVERAGE(P14:P19)*1.5+AVERAGE(P20:P25)*0</f>
+        <v>20.166666666666668</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(Q2:Q7)+AVERAGE(Q8:Q13)*2+AVERAGE(Q14:Q19)*1.5+AVERAGE(Q20:Q25)*0</f>
+        <v>19.833333333333336</v>
+      </c>
+      <c r="R26">
+        <f>AVERAGE(R2:R7)+AVERAGE(R8:R13)*2+AVERAGE(R14:R19)*1.5+AVERAGE(R20:R25)*0</f>
         <v>19.833333333333332</v>
       </c>
-      <c r="R26">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
       <c r="S26">
-        <f t="shared" si="0"/>
-        <v>19.25</v>
+        <f>AVERAGE(S2:S7)+AVERAGE(S8:S13)*2+AVERAGE(S14:S19)*1.5+AVERAGE(S20:S25)*0</f>
+        <v>19</v>
       </c>
       <c r="T26">
-        <f t="shared" si="0"/>
-        <v>19.416666666666668</v>
+        <f>AVERAGE(T2:T7)+AVERAGE(T8:T13)*2+AVERAGE(T14:T19)*1.5+AVERAGE(T20:T25)*0</f>
+        <v>17.916666666666664</v>
       </c>
       <c r="U26">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>AVERAGE(U2:U7)+AVERAGE(U8:U13)*2+AVERAGE(U14:U19)*1.5+AVERAGE(U20:U25)*0</f>
+        <v>17.25</v>
       </c>
       <c r="V26">
-        <f t="shared" si="0"/>
-        <v>14.999999999999998</v>
+        <f>AVERAGE(V2:V7)+AVERAGE(V8:V13)*2+AVERAGE(V14:V19)*1.5+AVERAGE(V20:V25)*0</f>
+        <v>16.75</v>
       </c>
       <c r="W26">
-        <f t="shared" si="0"/>
-        <v>18.916666666666664</v>
+        <f>AVERAGE(W2:W7)+AVERAGE(W8:W13)*2+AVERAGE(W14:W19)*1.5+AVERAGE(W20:W25)*0</f>
+        <v>16.583333333333336</v>
       </c>
       <c r="X26">
-        <f t="shared" si="0"/>
-        <v>17.666666666666668</v>
+        <f>AVERAGE(X2:X7)+AVERAGE(X8:X13)*2+AVERAGE(X14:X19)*1.5+AVERAGE(X20:X25)*0</f>
+        <v>15.583333333333334</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="0"/>
-        <v>15.833333333333334</v>
+        <f>AVERAGE(Y2:Y7)+AVERAGE(Y8:Y13)*2+AVERAGE(Y14:Y19)*1.5+AVERAGE(Y20:Y25)*0</f>
+        <v>14.75</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="0"/>
-        <v>17.083333333333336</v>
+        <f>AVERAGE(Z2:Z7)+AVERAGE(Z8:Z13)*2+AVERAGE(Z14:Z19)*1.5+AVERAGE(Z20:Z25)*0</f>
+        <v>12.833333333333332</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
@@ -4127,100 +4131,100 @@
         <v>36</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:Z29" si="1">AVERAGE(C2:C7)</f>
+        <f>AVERAGE(C2:C7)</f>
+        <v>4.5</v>
+      </c>
+      <c r="D29">
+        <f>AVERAGE(D2:D7)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="E29">
+        <f>AVERAGE(E2:E7)</f>
+        <v>5.5</v>
+      </c>
+      <c r="F29">
+        <f>AVERAGE(F2:F7)</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="G29">
+        <f>AVERAGE(G2:G7)</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="D29">
-        <f t="shared" si="1"/>
+      <c r="H29">
+        <f>AVERAGE(H2:H7)</f>
+        <v>7.833333333333333</v>
+      </c>
+      <c r="I29">
+        <f>AVERAGE(I2:I7)</f>
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <f>AVERAGE(J2:J7)</f>
+        <v>7.166666666666667</v>
+      </c>
+      <c r="K29">
+        <f>AVERAGE(K2:K7)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="L29">
+        <f>AVERAGE(L2:L7)</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="M29">
+        <f>AVERAGE(M2:M7)</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="N29">
+        <f>AVERAGE(N2:N7)</f>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="O29">
+        <f>AVERAGE(O2:O7)</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="P29">
+        <f>AVERAGE(P2:P7)</f>
+        <v>3.5</v>
+      </c>
+      <c r="Q29">
+        <f>AVERAGE(Q2:Q7)</f>
+        <v>5</v>
+      </c>
+      <c r="R29">
+        <f>AVERAGE(R2:R7)</f>
+        <v>5.5</v>
+      </c>
+      <c r="S29">
+        <f>AVERAGE(S2:S7)</f>
+        <v>1.5</v>
+      </c>
+      <c r="T29">
+        <f>AVERAGE(T2:T7)</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="U29">
+        <f>AVERAGE(U2:U7)</f>
+        <v>5</v>
+      </c>
+      <c r="V29">
+        <f>AVERAGE(V2:V7)</f>
         <v>4.5</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
-        <v>7.833333333333333</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="1"/>
-        <v>5.333333333333333</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="1"/>
-        <v>7.166666666666667</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="L29">
-        <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="1"/>
+      <c r="W29">
+        <f>AVERAGE(W2:W7)</f>
+        <v>6.166666666666667</v>
+      </c>
+      <c r="X29">
+        <f>AVERAGE(X2:X7)</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="Y29">
+        <f>AVERAGE(Y2:Y7)</f>
         <v>6.333333333333333</v>
       </c>
-      <c r="N29">
-        <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="1"/>
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="U29">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
-      </c>
-      <c r="V29">
-        <f t="shared" si="1"/>
+      <c r="Z29">
+        <f>AVERAGE(Z2:Z7)</f>
         <v>4.833333333333333</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="1"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="X29">
-        <f t="shared" si="1"/>
-        <v>6.166666666666667</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" si="1"/>
-        <v>6.333333333333333</v>
-      </c>
-      <c r="Z29">
-        <f t="shared" si="1"/>
-        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
@@ -4228,100 +4232,100 @@
         <v>7</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:Z30" si="2">AVERAGE(C8:C13)</f>
+        <f>AVERAGE(C8:C13)</f>
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <f>AVERAGE(D8:D13)</f>
+        <v>8.5</v>
+      </c>
+      <c r="E30">
+        <f>AVERAGE(E8:E13)</f>
         <v>7.333333333333333</v>
       </c>
-      <c r="D30">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="2"/>
-        <v>8.5</v>
-      </c>
       <c r="F30">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(F8:F13)</f>
+        <v>7.166666666666667</v>
+      </c>
+      <c r="G30">
+        <f>AVERAGE(G8:G13)</f>
         <v>7.333333333333333</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="2"/>
+      <c r="H30">
+        <f>AVERAGE(H8:H13)</f>
         <v>5.833333333333333</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="2"/>
-        <v>7.166666666666667</v>
-      </c>
       <c r="I30">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>AVERAGE(I8:I13)</f>
+        <v>5</v>
       </c>
       <c r="J30">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f>AVERAGE(J8:J13)</f>
+        <v>3</v>
       </c>
       <c r="K30">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(K8:K13)</f>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="L30">
+        <f>AVERAGE(L8:L13)</f>
+        <v>5.833333333333333</v>
+      </c>
+      <c r="M30">
+        <f>AVERAGE(M8:M13)</f>
         <v>4.833333333333333</v>
       </c>
-      <c r="L30">
-        <f t="shared" si="2"/>
+      <c r="N30">
+        <f>AVERAGE(N8:N13)</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="O30">
+        <f>AVERAGE(O8:O13)</f>
         <v>4.833333333333333</v>
       </c>
-      <c r="M30">
-        <f t="shared" si="2"/>
-        <v>5.833333333333333</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="2"/>
+      <c r="P30">
+        <f>AVERAGE(P8:P13)</f>
         <v>3.8333333333333335</v>
       </c>
-      <c r="O30">
-        <f t="shared" si="2"/>
-        <v>5.166666666666667</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="2"/>
+      <c r="Q30">
+        <f>AVERAGE(Q8:Q13)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="Q30">
-        <f t="shared" si="2"/>
+      <c r="R30">
+        <f>AVERAGE(R8:R13)</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="S30">
+        <f>AVERAGE(S8:S13)</f>
         <v>3.5</v>
       </c>
-      <c r="R30">
-        <f t="shared" si="2"/>
+      <c r="T30">
+        <f>AVERAGE(T8:T13)</f>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="U30">
+        <f>AVERAGE(U8:U13)</f>
+        <v>1.5</v>
+      </c>
+      <c r="V30">
+        <f>AVERAGE(V8:V13)</f>
+        <v>4.5</v>
+      </c>
+      <c r="W30">
+        <f>AVERAGE(W8:W13)</f>
         <v>3.8333333333333335</v>
       </c>
-      <c r="S30">
-        <f t="shared" si="2"/>
-        <v>4.5</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="2"/>
+      <c r="X30">
+        <f>AVERAGE(X8:X13)</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="Y30">
+        <f>AVERAGE(Y8:Y13)</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="Z30">
+        <f>AVERAGE(Z8:Z13)</f>
         <v>1.5</v>
-      </c>
-      <c r="U30">
-        <f t="shared" si="2"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="V30">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="2"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="X30">
-        <f t="shared" si="2"/>
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" si="2"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="Z30">
-        <f t="shared" si="2"/>
-        <v>2.3333333333333335</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
@@ -4329,100 +4333,100 @@
         <v>8</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:Z31" si="3">AVERAGE(C14:C19)</f>
+        <f>AVERAGE(C14:C19)</f>
+        <v>9.5</v>
+      </c>
+      <c r="D31">
+        <f>AVERAGE(D14:D19)</f>
+        <v>7.833333333333333</v>
+      </c>
+      <c r="E31">
+        <f>AVERAGE(E14:E19)</f>
+        <v>9.8333333333333339</v>
+      </c>
+      <c r="F31">
+        <f>AVERAGE(F14:F19)</f>
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="G31">
+        <f>AVERAGE(G14:G19)</f>
         <v>8.8333333333333339</v>
       </c>
-      <c r="D31">
-        <f t="shared" si="3"/>
+      <c r="H31">
+        <f>AVERAGE(H14:H19)</f>
+        <v>8.1666666666666661</v>
+      </c>
+      <c r="I31">
+        <f>AVERAGE(I14:I19)</f>
         <v>9.5</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="3"/>
+      <c r="J31">
+        <f>AVERAGE(J14:J19)</f>
+        <v>8.5</v>
+      </c>
+      <c r="K31">
+        <f>AVERAGE(K14:K19)</f>
         <v>7.833333333333333</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="3"/>
-        <v>9.8333333333333339</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="3"/>
-        <v>8.1666666666666661</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="3"/>
-        <v>9.1666666666666661</v>
-      </c>
-      <c r="I31">
-        <f t="shared" si="3"/>
-        <v>8.5</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="3"/>
-        <v>9.5</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="3"/>
+      <c r="L31">
+        <f>AVERAGE(L14:L19)</f>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="M31">
+        <f>AVERAGE(M14:M19)</f>
+        <v>6.5</v>
+      </c>
+      <c r="N31">
+        <f>AVERAGE(N14:N19)</f>
+        <v>5.166666666666667</v>
+      </c>
+      <c r="O31">
+        <f>AVERAGE(O14:O19)</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="L31">
-        <f t="shared" si="3"/>
-        <v>6.5</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="3"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="3"/>
-        <v>7.833333333333333</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="3"/>
-        <v>5.166666666666667</v>
-      </c>
       <c r="P31">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(P14:P19)</f>
+        <v>6</v>
+      </c>
+      <c r="Q31">
+        <f>AVERAGE(Q14:Q19)</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="Q31">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
       <c r="R31">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f>AVERAGE(R14:R19)</f>
+        <v>4.666666666666667</v>
       </c>
       <c r="S31">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(S14:S19)</f>
+        <v>7</v>
+      </c>
+      <c r="T31">
+        <f>AVERAGE(T14:T19)</f>
+        <v>6.166666666666667</v>
+      </c>
+      <c r="U31">
+        <f>AVERAGE(U14:U19)</f>
+        <v>6.166666666666667</v>
+      </c>
+      <c r="V31">
+        <f>AVERAGE(V14:V19)</f>
         <v>2.1666666666666665</v>
       </c>
-      <c r="T31">
-        <f t="shared" si="3"/>
-        <v>6.166666666666667</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="3"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="V31">
-        <f t="shared" si="3"/>
+      <c r="W31">
+        <f>AVERAGE(W14:W19)</f>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="X31">
+        <f>AVERAGE(X14:X19)</f>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="Y31">
+        <f>AVERAGE(Y14:Y19)</f>
+        <v>2.5</v>
+      </c>
+      <c r="Z31">
+        <f>AVERAGE(Z14:Z19)</f>
         <v>3.3333333333333335</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="3"/>
-        <v>6.166666666666667</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="3"/>
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="3"/>
-        <v>2.5</v>
-      </c>
-      <c r="Z31">
-        <f t="shared" si="3"/>
-        <v>3.8333333333333335</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
@@ -4430,104 +4434,104 @@
         <v>9</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:Z32" si="4">AVERAGE(C20:C25)</f>
-        <v>5</v>
+        <f>AVERAGE(C20:C25)</f>
+        <v>5.5</v>
       </c>
       <c r="D32">
-        <f t="shared" si="4"/>
-        <v>5.5</v>
+        <f>AVERAGE(D20:D25)</f>
+        <v>4.833333333333333</v>
       </c>
       <c r="E32">
-        <f t="shared" si="4"/>
-        <v>4.833333333333333</v>
+        <f>AVERAGE(E20:E25)</f>
+        <v>5</v>
       </c>
       <c r="F32">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f>AVERAGE(F20:F25)</f>
+        <v>3.1666666666666665</v>
       </c>
       <c r="G32">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(G20:G25)</f>
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <f>AVERAGE(H20:H25)</f>
         <v>8.5</v>
       </c>
-      <c r="H32">
-        <f t="shared" si="4"/>
+      <c r="I32">
+        <f>AVERAGE(I20:I25)</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="J32">
+        <f>AVERAGE(J20:J25)</f>
+        <v>4</v>
+      </c>
+      <c r="K32">
+        <f>AVERAGE(K20:K25)</f>
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <f>AVERAGE(L20:L25)</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="M32">
+        <f>AVERAGE(M20:M25)</f>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="N32">
+        <f>AVERAGE(N20:N25)</f>
         <v>3.1666666666666665</v>
       </c>
-      <c r="I32">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="4"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="4"/>
+      <c r="O32">
+        <f>AVERAGE(O20:O25)</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="L32">
-        <f t="shared" si="4"/>
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="4"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="4"/>
-        <v>3.1666666666666665</v>
-      </c>
       <c r="P32">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(P20:P25)</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="Q32">
+        <f>AVERAGE(Q20:Q25)</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="Q32">
-        <f t="shared" si="4"/>
+      <c r="R32">
+        <f>AVERAGE(R20:R25)</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="S32">
+        <f>AVERAGE(S20:S25)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="R32">
-        <f t="shared" si="4"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
       <c r="T32">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(T20:T25)</f>
+        <v>2</v>
+      </c>
+      <c r="U32">
+        <f>AVERAGE(U20:U25)</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="U32">
-        <f t="shared" si="4"/>
-        <v>2.3333333333333335</v>
-      </c>
       <c r="V32">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(V20:V25)</f>
+        <v>5</v>
+      </c>
+      <c r="W32">
+        <f>AVERAGE(W20:W25)</f>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="X32">
+        <f>AVERAGE(X20:X25)</f>
+        <v>3</v>
+      </c>
+      <c r="Y32">
+        <f>AVERAGE(Y20:Y25)</f>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="Z32">
+        <f>AVERAGE(Z20:Z25)</f>
         <v>4.333333333333333</v>
-      </c>
-      <c r="W32">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="4"/>
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="Y32">
-        <f t="shared" si="4"/>
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="Z32">
-        <f t="shared" si="4"/>
-        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState columnSort="1" ref="C1:Z32">
+  <sortState columnSort="1" ref="C1:Z26">
     <sortCondition descending="1" ref="C26:Z26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
